--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3854592.017026634</v>
+        <v>3854826.741447886</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46396.44274910165</v>
+        <v>46396.44274910146</v>
       </c>
     </row>
     <row r="9">
@@ -913,10 +913,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>4.562286607642875</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="Y7" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
     </row>
     <row r="10">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.2973429055264</v>
+        <v>350.2973429055263</v>
       </c>
       <c r="C11" t="n">
         <v>332.8363930130533</v>
@@ -1378,16 +1378,16 @@
         <v>322.2465428627287</v>
       </c>
       <c r="E11" t="n">
-        <v>349.4938713143076</v>
+        <v>349.4938713143075</v>
       </c>
       <c r="F11" t="n">
         <v>374.4395469837572</v>
       </c>
       <c r="G11" t="n">
-        <v>377.7686347829083</v>
+        <v>377.7686347829082</v>
       </c>
       <c r="H11" t="n">
-        <v>254.8324666562944</v>
+        <v>254.8324666562943</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.42192026455579</v>
+        <v>22.24303558768056</v>
       </c>
       <c r="T11" t="n">
-        <v>168.3445894087992</v>
+        <v>168.3445894087991</v>
       </c>
       <c r="U11" t="n">
-        <v>218.5013458319405</v>
+        <v>218.5013458319404</v>
       </c>
       <c r="V11" t="n">
-        <v>257.1368750353053</v>
+        <v>295.3157597121806</v>
       </c>
       <c r="W11" t="n">
-        <v>316.8044699594588</v>
+        <v>316.8044699594587</v>
       </c>
       <c r="X11" t="n">
         <v>337.2946019205148</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.8014398980994</v>
+        <v>353.8014398980993</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H12" t="n">
-        <v>85.89393637896963</v>
+        <v>85.89393637896964</v>
       </c>
       <c r="I12" t="n">
-        <v>5.61645961780853</v>
+        <v>5.616459617808559</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.3954814239831</v>
+        <v>147.395481423983</v>
       </c>
       <c r="C13" t="n">
-        <v>134.8103223406736</v>
+        <v>134.8103223406735</v>
       </c>
       <c r="D13" t="n">
         <v>116.1789742602581</v>
       </c>
       <c r="E13" t="n">
-        <v>113.997463888615</v>
+        <v>113.9974638886149</v>
       </c>
       <c r="F13" t="n">
-        <v>112.984549264977</v>
+        <v>112.9845492649769</v>
       </c>
       <c r="G13" t="n">
         <v>133.2678709489302</v>
       </c>
       <c r="H13" t="n">
-        <v>109.460635210943</v>
+        <v>109.4606352109429</v>
       </c>
       <c r="I13" t="n">
-        <v>54.24938773832427</v>
+        <v>54.24938773832425</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04260774024735</v>
+        <v>42.0426077402469</v>
       </c>
       <c r="S13" t="n">
         <v>151.7307292602187</v>
       </c>
       <c r="T13" t="n">
-        <v>185.7390312499644</v>
+        <v>185.7390312499643</v>
       </c>
       <c r="U13" t="n">
-        <v>253.7578064357235</v>
+        <v>253.7578064357237</v>
       </c>
       <c r="V13" t="n">
-        <v>219.7011445658738</v>
+        <v>219.7011445658737</v>
       </c>
       <c r="W13" t="n">
-        <v>254.0864995786368</v>
+        <v>254.0864995786367</v>
       </c>
       <c r="X13" t="n">
         <v>193.2731566310829</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.1481545941406</v>
+        <v>186.1481545941405</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.42192026455572</v>
+        <v>60.42192026455575</v>
       </c>
       <c r="T14" t="n">
         <v>168.3445894087991</v>
@@ -1675,7 +1675,7 @@
         <v>337.2946019205147</v>
       </c>
       <c r="Y14" t="n">
-        <v>315.6225552212256</v>
+        <v>315.6225552212247</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>85.89393637896964</v>
       </c>
       <c r="I15" t="n">
-        <v>5.616459617808545</v>
+        <v>5.616459617808559</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>109.4606352109429</v>
       </c>
       <c r="I16" t="n">
-        <v>54.24938773832417</v>
+        <v>54.24938773832421</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.0426077402469</v>
+        <v>42.04260774024735</v>
       </c>
       <c r="S16" t="n">
-        <v>151.7307292602186</v>
+        <v>151.7307292602187</v>
       </c>
       <c r="T16" t="n">
         <v>185.7390312499643</v>
       </c>
       <c r="U16" t="n">
-        <v>253.7578064357239</v>
+        <v>253.7578064357232</v>
       </c>
       <c r="V16" t="n">
         <v>219.7011445658737</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.5702797143209</v>
+        <v>347.570279714321</v>
       </c>
       <c r="C17" t="n">
-        <v>330.1093298218478</v>
+        <v>330.109329821848</v>
       </c>
       <c r="D17" t="n">
-        <v>319.5194796715232</v>
+        <v>319.5194796715234</v>
       </c>
       <c r="E17" t="n">
-        <v>346.7668081231021</v>
+        <v>346.7668081231022</v>
       </c>
       <c r="F17" t="n">
-        <v>371.7124837925517</v>
+        <v>371.7124837925519</v>
       </c>
       <c r="G17" t="n">
-        <v>375.0415715917028</v>
+        <v>375.041571591703</v>
       </c>
       <c r="H17" t="n">
-        <v>252.1054034650889</v>
+        <v>252.105403465089</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.69485707335267</v>
+        <v>57.69485707335087</v>
       </c>
       <c r="T17" t="n">
-        <v>165.6175262175937</v>
+        <v>165.6175262175938</v>
       </c>
       <c r="U17" t="n">
-        <v>215.774282640735</v>
+        <v>215.7742826407345</v>
       </c>
       <c r="V17" t="n">
-        <v>292.5886965209752</v>
+        <v>292.5886965209754</v>
       </c>
       <c r="W17" t="n">
-        <v>314.0774067682533</v>
+        <v>314.0774067682535</v>
       </c>
       <c r="X17" t="n">
-        <v>334.5675387293093</v>
+        <v>334.5675387293095</v>
       </c>
       <c r="Y17" t="n">
-        <v>351.0743767068939</v>
+        <v>351.074376706894</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6684182327776</v>
+        <v>144.6684182327777</v>
       </c>
       <c r="C19" t="n">
-        <v>132.0832591494681</v>
+        <v>132.0832591494683</v>
       </c>
       <c r="D19" t="n">
-        <v>113.4519110690527</v>
+        <v>113.4519110690528</v>
       </c>
       <c r="E19" t="n">
-        <v>111.2704006974095</v>
+        <v>111.2704006974096</v>
       </c>
       <c r="F19" t="n">
-        <v>110.2574860737716</v>
+        <v>110.2574860737717</v>
       </c>
       <c r="G19" t="n">
-        <v>130.5408077577248</v>
+        <v>130.5408077577249</v>
       </c>
       <c r="H19" t="n">
-        <v>106.7335720197375</v>
+        <v>106.7335720197376</v>
       </c>
       <c r="I19" t="n">
-        <v>51.52232454711881</v>
+        <v>51.52232454711893</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.3155445490419</v>
+        <v>39.31554454904202</v>
       </c>
       <c r="S19" t="n">
-        <v>149.0036660690133</v>
+        <v>149.0036660690134</v>
       </c>
       <c r="T19" t="n">
-        <v>183.0119680587589</v>
+        <v>183.011968058759</v>
       </c>
       <c r="U19" t="n">
-        <v>251.030743244518</v>
+        <v>251.0307432445182</v>
       </c>
       <c r="V19" t="n">
-        <v>216.9740813746683</v>
+        <v>216.9740813746684</v>
       </c>
       <c r="W19" t="n">
-        <v>251.3594363874313</v>
+        <v>251.3594363874314</v>
       </c>
       <c r="X19" t="n">
-        <v>190.5460934398775</v>
+        <v>190.5460934398776</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.4210914029351</v>
+        <v>183.4210914029352</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.5702797143209</v>
+        <v>347.570279714321</v>
       </c>
       <c r="C20" t="n">
-        <v>330.1093298218478</v>
+        <v>330.109329821848</v>
       </c>
       <c r="D20" t="n">
-        <v>319.5194796715232</v>
+        <v>319.5194796715234</v>
       </c>
       <c r="E20" t="n">
-        <v>346.7668081231021</v>
+        <v>346.7668081231022</v>
       </c>
       <c r="F20" t="n">
-        <v>371.7124837925517</v>
+        <v>371.7124837925518</v>
       </c>
       <c r="G20" t="n">
-        <v>375.0415715917028</v>
+        <v>375.0415715917029</v>
       </c>
       <c r="H20" t="n">
-        <v>252.1054034650889</v>
+        <v>252.105403465089</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.69485707335033</v>
+        <v>57.69485707335087</v>
       </c>
       <c r="T20" t="n">
         <v>165.6175262175937</v>
       </c>
       <c r="U20" t="n">
-        <v>215.7742826407363</v>
+        <v>215.7742826407354</v>
       </c>
       <c r="V20" t="n">
-        <v>292.5886965209752</v>
+        <v>292.5886965209753</v>
       </c>
       <c r="W20" t="n">
-        <v>314.0774067682533</v>
+        <v>314.0774067682534</v>
       </c>
       <c r="X20" t="n">
-        <v>334.5675387293093</v>
+        <v>334.5675387293094</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.0743767068939</v>
+        <v>351.074376706894</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H21" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I21" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6684182327776</v>
+        <v>144.6684182327777</v>
       </c>
       <c r="C22" t="n">
-        <v>132.0832591494681</v>
+        <v>132.0832591494682</v>
       </c>
       <c r="D22" t="n">
         <v>113.4519110690527</v>
@@ -2256,10 +2256,10 @@
         <v>130.5408077577248</v>
       </c>
       <c r="H22" t="n">
-        <v>106.7335720197375</v>
+        <v>106.7335720197376</v>
       </c>
       <c r="I22" t="n">
-        <v>51.52232454711881</v>
+        <v>51.52232454711886</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>39.3155445490419</v>
+        <v>39.31554454904193</v>
       </c>
       <c r="S22" t="n">
         <v>149.0036660690133</v>
       </c>
       <c r="T22" t="n">
-        <v>183.0119680587589</v>
+        <v>183.011968058759</v>
       </c>
       <c r="U22" t="n">
-        <v>251.030743244518</v>
+        <v>251.0307432445181</v>
       </c>
       <c r="V22" t="n">
-        <v>216.9740813746683</v>
+        <v>216.9740813746684</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3594363874313</v>
+        <v>251.3594363874314</v>
       </c>
       <c r="X22" t="n">
         <v>190.5460934398775</v>
       </c>
       <c r="Y22" t="n">
-        <v>183.4210914029351</v>
+        <v>183.4210914029352</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.5702797143209</v>
+        <v>347.570279714321</v>
       </c>
       <c r="C23" t="n">
-        <v>330.1093298218478</v>
+        <v>330.109329821848</v>
       </c>
       <c r="D23" t="n">
-        <v>319.5194796715232</v>
+        <v>319.5194796715234</v>
       </c>
       <c r="E23" t="n">
-        <v>346.7668081231021</v>
+        <v>346.7668081231022</v>
       </c>
       <c r="F23" t="n">
-        <v>371.7124837925517</v>
+        <v>371.7124837925519</v>
       </c>
       <c r="G23" t="n">
-        <v>375.0415715917028</v>
+        <v>375.041571591703</v>
       </c>
       <c r="H23" t="n">
-        <v>252.1054034650889</v>
+        <v>252.1054034650891</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.69485707335033</v>
+        <v>57.69485707335043</v>
       </c>
       <c r="T23" t="n">
-        <v>165.6175262175944</v>
+        <v>165.6175262175938</v>
       </c>
       <c r="U23" t="n">
-        <v>215.774282640735</v>
+        <v>215.7742826407345</v>
       </c>
       <c r="V23" t="n">
-        <v>292.5886965209752</v>
+        <v>292.5886965209754</v>
       </c>
       <c r="W23" t="n">
-        <v>314.0774067682533</v>
+        <v>314.0774067682535</v>
       </c>
       <c r="X23" t="n">
-        <v>334.5675387293093</v>
+        <v>334.5675387293095</v>
       </c>
       <c r="Y23" t="n">
-        <v>351.0743767068939</v>
+        <v>351.074376706894</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H24" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I24" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6684182327776</v>
+        <v>144.6684182327778</v>
       </c>
       <c r="C25" t="n">
-        <v>132.0832591494681</v>
+        <v>132.0832591494683</v>
       </c>
       <c r="D25" t="n">
-        <v>113.4519110690527</v>
+        <v>113.4519110690528</v>
       </c>
       <c r="E25" t="n">
-        <v>111.2704006974095</v>
+        <v>111.2704006974096</v>
       </c>
       <c r="F25" t="n">
-        <v>110.2574860737716</v>
+        <v>110.2574860737717</v>
       </c>
       <c r="G25" t="n">
-        <v>130.5408077577248</v>
+        <v>130.5408077577249</v>
       </c>
       <c r="H25" t="n">
-        <v>106.7335720197375</v>
+        <v>106.7335720197376</v>
       </c>
       <c r="I25" t="n">
-        <v>51.52232454711881</v>
+        <v>51.52232454711893</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>39.3155445490419</v>
+        <v>39.31554454904202</v>
       </c>
       <c r="S25" t="n">
-        <v>149.0036660690133</v>
+        <v>149.0036660690134</v>
       </c>
       <c r="T25" t="n">
-        <v>183.0119680587589</v>
+        <v>183.011968058759</v>
       </c>
       <c r="U25" t="n">
-        <v>251.030743244518</v>
+        <v>251.0307432445182</v>
       </c>
       <c r="V25" t="n">
-        <v>216.9740813746683</v>
+        <v>216.9740813746685</v>
       </c>
       <c r="W25" t="n">
-        <v>251.3594363874313</v>
+        <v>251.3594363874315</v>
       </c>
       <c r="X25" t="n">
-        <v>190.5460934398775</v>
+        <v>190.5460934398776</v>
       </c>
       <c r="Y25" t="n">
-        <v>183.4210914029351</v>
+        <v>183.4210914029352</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>350.2973429055262</v>
+        <v>350.2973429055263</v>
       </c>
       <c r="C26" t="n">
-        <v>332.8363930130532</v>
+        <v>332.8363930130533</v>
       </c>
       <c r="D26" t="n">
-        <v>322.2465428627286</v>
+        <v>322.2465428627287</v>
       </c>
       <c r="E26" t="n">
         <v>349.4938713143075</v>
       </c>
       <c r="F26" t="n">
-        <v>374.4395469837571</v>
+        <v>374.4395469837572</v>
       </c>
       <c r="G26" t="n">
         <v>377.7686347829082</v>
       </c>
       <c r="H26" t="n">
-        <v>254.8324666562943</v>
+        <v>243.3381402938547</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.42192026455567</v>
+        <v>60.42192026455571</v>
       </c>
       <c r="T26" t="n">
-        <v>156.8502630463587</v>
+        <v>168.3445894087991</v>
       </c>
       <c r="U26" t="n">
-        <v>218.5013458319403</v>
+        <v>218.5013458319404</v>
       </c>
       <c r="V26" t="n">
         <v>295.3157597121806</v>
@@ -2620,7 +2620,7 @@
         <v>316.8044699594587</v>
       </c>
       <c r="X26" t="n">
-        <v>337.2946019205147</v>
+        <v>337.2946019205148</v>
       </c>
       <c r="Y26" t="n">
         <v>353.8014398980993</v>
@@ -2651,10 +2651,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H27" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I27" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.3954814239829</v>
+        <v>147.395481423983</v>
       </c>
       <c r="C28" t="n">
         <v>134.8103223406735</v>
       </c>
       <c r="D28" t="n">
-        <v>116.178974260258</v>
+        <v>116.1789742602581</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9974638886148</v>
+        <v>113.9974638886149</v>
       </c>
       <c r="F28" t="n">
         <v>112.9845492649769</v>
       </c>
       <c r="G28" t="n">
-        <v>133.2678709489301</v>
+        <v>133.2678709489302</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4606352109428</v>
+        <v>109.4606352109429</v>
       </c>
       <c r="I28" t="n">
-        <v>54.24938773832415</v>
+        <v>54.24938773832419</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04260774024724</v>
+        <v>42.04260774024726</v>
       </c>
       <c r="S28" t="n">
-        <v>151.7307292602183</v>
+        <v>151.7307292602186</v>
       </c>
       <c r="T28" t="n">
-        <v>185.7390312499642</v>
+        <v>185.7390312499643</v>
       </c>
       <c r="U28" t="n">
-        <v>253.7578064357246</v>
+        <v>253.7578064357241</v>
       </c>
       <c r="V28" t="n">
-        <v>219.7011445658736</v>
+        <v>219.7011445658737</v>
       </c>
       <c r="W28" t="n">
-        <v>254.0864995786366</v>
+        <v>254.0864995786367</v>
       </c>
       <c r="X28" t="n">
-        <v>193.2731566310828</v>
+        <v>193.2731566310829</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.1481545941404</v>
+        <v>186.1481545941405</v>
       </c>
     </row>
     <row r="29">
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.42192026455575</v>
+        <v>60.42192026455577</v>
       </c>
       <c r="T29" t="n">
-        <v>139.1449411794162</v>
+        <v>168.3445894087991</v>
       </c>
       <c r="U29" t="n">
-        <v>218.5013458319404</v>
+        <v>218.5013458319405</v>
       </c>
       <c r="V29" t="n">
-        <v>295.3157597121806</v>
+        <v>295.3157597121807</v>
       </c>
       <c r="W29" t="n">
-        <v>316.8044699594587</v>
+        <v>287.6048217300769</v>
       </c>
       <c r="X29" t="n">
         <v>337.2946019205148</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.8014398980993</v>
+        <v>353.8014398980994</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H30" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I30" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.395481423983</v>
+        <v>147.3954814239831</v>
       </c>
       <c r="C31" t="n">
         <v>134.8103223406736</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04260774024733</v>
+        <v>42.04260774024732</v>
       </c>
       <c r="S31" t="n">
         <v>151.7307292602187</v>
@@ -3009,10 +3009,10 @@
         <v>253.7578064357235</v>
       </c>
       <c r="V31" t="n">
-        <v>219.7011445658737</v>
+        <v>219.7011445658738</v>
       </c>
       <c r="W31" t="n">
-        <v>254.0864995786367</v>
+        <v>254.0864995786368</v>
       </c>
       <c r="X31" t="n">
         <v>193.2731566310829</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>347.570279714321</v>
+        <v>347.5702797143211</v>
       </c>
       <c r="C32" t="n">
-        <v>330.109329821848</v>
+        <v>330.1093298218481</v>
       </c>
       <c r="D32" t="n">
-        <v>319.5194796715234</v>
+        <v>319.5194796715235</v>
       </c>
       <c r="E32" t="n">
-        <v>346.7668081231022</v>
+        <v>346.7668081231023</v>
       </c>
       <c r="F32" t="n">
-        <v>371.7124837925518</v>
+        <v>371.712483792552</v>
       </c>
       <c r="G32" t="n">
-        <v>375.0415715917029</v>
+        <v>375.041571591703</v>
       </c>
       <c r="H32" t="n">
-        <v>252.105403465089</v>
+        <v>252.1054034650891</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.6948570733504</v>
+        <v>57.69485707335087</v>
       </c>
       <c r="T32" t="n">
-        <v>165.6175262175944</v>
+        <v>165.6175262175939</v>
       </c>
       <c r="U32" t="n">
         <v>215.7742826407345</v>
       </c>
       <c r="V32" t="n">
-        <v>292.5886965209753</v>
+        <v>292.5886965209754</v>
       </c>
       <c r="W32" t="n">
-        <v>314.0774067682534</v>
+        <v>314.0774067682535</v>
       </c>
       <c r="X32" t="n">
-        <v>334.5675387293094</v>
+        <v>334.5675387293095</v>
       </c>
       <c r="Y32" t="n">
-        <v>351.074376706894</v>
+        <v>351.0743767068941</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H33" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I33" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.6684182327777</v>
+        <v>144.6684182327778</v>
       </c>
       <c r="C34" t="n">
-        <v>132.0832591494682</v>
+        <v>132.0832591494683</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4519110690527</v>
+        <v>113.4519110690529</v>
       </c>
       <c r="E34" t="n">
-        <v>111.2704006974095</v>
+        <v>111.2704006974097</v>
       </c>
       <c r="F34" t="n">
-        <v>110.2574860737716</v>
+        <v>110.2574860737717</v>
       </c>
       <c r="G34" t="n">
-        <v>130.5408077577248</v>
+        <v>130.5408077577249</v>
       </c>
       <c r="H34" t="n">
-        <v>106.7335720197376</v>
+        <v>106.7335720197377</v>
       </c>
       <c r="I34" t="n">
-        <v>51.52232454711887</v>
+        <v>51.52232454711898</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.31554454904196</v>
+        <v>39.31554454904207</v>
       </c>
       <c r="S34" t="n">
-        <v>149.0036660690133</v>
+        <v>149.0036660690134</v>
       </c>
       <c r="T34" t="n">
-        <v>183.011968058759</v>
+        <v>183.0119680587591</v>
       </c>
       <c r="U34" t="n">
-        <v>251.0307432445181</v>
+        <v>251.0307432445182</v>
       </c>
       <c r="V34" t="n">
-        <v>216.9740813746684</v>
+        <v>216.9740813746685</v>
       </c>
       <c r="W34" t="n">
-        <v>251.3594363874314</v>
+        <v>251.3594363874315</v>
       </c>
       <c r="X34" t="n">
-        <v>190.5460934398775</v>
+        <v>190.5460934398777</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.4210914029352</v>
+        <v>183.4210914029353</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.5702797143208</v>
+        <v>347.570279714321</v>
       </c>
       <c r="C35" t="n">
-        <v>330.1093298218478</v>
+        <v>330.1093298218481</v>
       </c>
       <c r="D35" t="n">
-        <v>319.5194796715232</v>
+        <v>319.5194796715234</v>
       </c>
       <c r="E35" t="n">
-        <v>346.766808123102</v>
+        <v>346.7668081231022</v>
       </c>
       <c r="F35" t="n">
-        <v>371.7124837925517</v>
+        <v>371.7124837925519</v>
       </c>
       <c r="G35" t="n">
-        <v>375.0415715917027</v>
+        <v>375.041571591703</v>
       </c>
       <c r="H35" t="n">
-        <v>252.1054034650889</v>
+        <v>252.1054034650891</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>57.69485707335087</v>
       </c>
       <c r="T35" t="n">
-        <v>165.6175262175936</v>
+        <v>165.6175262175938</v>
       </c>
       <c r="U35" t="n">
         <v>215.7742826407349</v>
       </c>
       <c r="V35" t="n">
-        <v>292.5886965209751</v>
+        <v>292.5886965209754</v>
       </c>
       <c r="W35" t="n">
-        <v>314.0774067682532</v>
+        <v>314.0774067682535</v>
       </c>
       <c r="X35" t="n">
-        <v>334.5675387293093</v>
+        <v>334.5675387293095</v>
       </c>
       <c r="Y35" t="n">
-        <v>351.0743767068938</v>
+        <v>351.0743767068941</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H36" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I36" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.6684182327776</v>
+        <v>144.6684182327778</v>
       </c>
       <c r="C37" t="n">
-        <v>132.0832591494681</v>
+        <v>132.0832591494683</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4519110690526</v>
+        <v>113.4519110690528</v>
       </c>
       <c r="E37" t="n">
-        <v>111.2704006974094</v>
+        <v>111.2704006974097</v>
       </c>
       <c r="F37" t="n">
-        <v>110.2574860737715</v>
+        <v>110.2574860737717</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5408077577247</v>
+        <v>130.5408077577249</v>
       </c>
       <c r="H37" t="n">
-        <v>106.7335720197374</v>
+        <v>106.7335720197377</v>
       </c>
       <c r="I37" t="n">
-        <v>51.52232454711876</v>
+        <v>51.52232454711897</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.31554454904185</v>
+        <v>39.31554454904204</v>
       </c>
       <c r="S37" t="n">
-        <v>149.0036660690132</v>
+        <v>149.0036660690134</v>
       </c>
       <c r="T37" t="n">
-        <v>183.0119680587588</v>
+        <v>183.0119680587591</v>
       </c>
       <c r="U37" t="n">
-        <v>251.030743244518</v>
+        <v>251.0307432445182</v>
       </c>
       <c r="V37" t="n">
-        <v>216.9740813746683</v>
+        <v>216.9740813746685</v>
       </c>
       <c r="W37" t="n">
-        <v>251.3594363874313</v>
+        <v>251.3594363874315</v>
       </c>
       <c r="X37" t="n">
-        <v>190.5460934398774</v>
+        <v>190.5460934398776</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.421091402935</v>
+        <v>183.4210914029353</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.5702797143207</v>
+        <v>347.570279714321</v>
       </c>
       <c r="C38" t="n">
-        <v>330.1093298218477</v>
+        <v>330.109329821848</v>
       </c>
       <c r="D38" t="n">
-        <v>319.5194796715231</v>
+        <v>319.5194796715234</v>
       </c>
       <c r="E38" t="n">
-        <v>346.766808123102</v>
+        <v>346.7668081231022</v>
       </c>
       <c r="F38" t="n">
-        <v>371.7124837925516</v>
+        <v>371.7124837925519</v>
       </c>
       <c r="G38" t="n">
-        <v>375.0415715917027</v>
+        <v>375.041571591703</v>
       </c>
       <c r="H38" t="n">
-        <v>252.1054034650888</v>
+        <v>252.1054034650891</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.69485707335022</v>
+        <v>57.69485707335087</v>
       </c>
       <c r="T38" t="n">
-        <v>165.6175262175939</v>
+        <v>165.6175262175938</v>
       </c>
       <c r="U38" t="n">
-        <v>215.7742826407349</v>
+        <v>215.7742826407352</v>
       </c>
       <c r="V38" t="n">
-        <v>292.5886965209751</v>
+        <v>292.5886965209754</v>
       </c>
       <c r="W38" t="n">
-        <v>314.0774067682532</v>
+        <v>314.0774067682535</v>
       </c>
       <c r="X38" t="n">
-        <v>334.5675387293092</v>
+        <v>334.5675387293095</v>
       </c>
       <c r="Y38" t="n">
-        <v>351.0743767068938</v>
+        <v>351.074376706894</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H39" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I39" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.6684182327775</v>
+        <v>144.6684182327778</v>
       </c>
       <c r="C40" t="n">
-        <v>132.083259149468</v>
+        <v>132.0832591494683</v>
       </c>
       <c r="D40" t="n">
-        <v>113.4519110690526</v>
+        <v>113.4519110690528</v>
       </c>
       <c r="E40" t="n">
-        <v>111.2704006974094</v>
+        <v>111.2704006974096</v>
       </c>
       <c r="F40" t="n">
-        <v>110.2574860737714</v>
+        <v>110.2574860737717</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5408077577247</v>
+        <v>130.5408077577249</v>
       </c>
       <c r="H40" t="n">
-        <v>106.7335720197374</v>
+        <v>106.7335720197376</v>
       </c>
       <c r="I40" t="n">
-        <v>51.5223245471187</v>
+        <v>51.52232454711893</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.31554454904179</v>
+        <v>39.31554454904202</v>
       </c>
       <c r="S40" t="n">
-        <v>149.0036660690131</v>
+        <v>149.0036660690134</v>
       </c>
       <c r="T40" t="n">
-        <v>183.0119680587588</v>
+        <v>183.011968058759</v>
       </c>
       <c r="U40" t="n">
-        <v>251.0307432445179</v>
+        <v>251.0307432445182</v>
       </c>
       <c r="V40" t="n">
-        <v>216.9740813746682</v>
+        <v>216.9740813746685</v>
       </c>
       <c r="W40" t="n">
-        <v>251.3594363874312</v>
+        <v>251.3594363874315</v>
       </c>
       <c r="X40" t="n">
-        <v>190.5460934398774</v>
+        <v>190.5460934398776</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.421091402935</v>
+        <v>183.4210914029352</v>
       </c>
     </row>
     <row r="41">
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.42192026455572</v>
+        <v>60.42192026455577</v>
       </c>
       <c r="T41" t="n">
         <v>168.3445894087991</v>
       </c>
       <c r="U41" t="n">
-        <v>218.5013458319404</v>
+        <v>180.322461155066</v>
       </c>
       <c r="V41" t="n">
-        <v>257.1368750353062</v>
+        <v>295.3157597121806</v>
       </c>
       <c r="W41" t="n">
         <v>316.8044699594587</v>
@@ -3836,10 +3836,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H42" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I42" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.395481423983</v>
+        <v>147.3954814239831</v>
       </c>
       <c r="C43" t="n">
-        <v>134.8103223406735</v>
+        <v>134.8103223406736</v>
       </c>
       <c r="D43" t="n">
         <v>116.1789742602581</v>
@@ -3909,7 +3909,7 @@
         <v>113.9974638886149</v>
       </c>
       <c r="F43" t="n">
-        <v>112.9845492649769</v>
+        <v>112.984549264977</v>
       </c>
       <c r="G43" t="n">
         <v>133.2678709489302</v>
@@ -3918,7 +3918,7 @@
         <v>109.4606352109429</v>
       </c>
       <c r="I43" t="n">
-        <v>54.24938773832405</v>
+        <v>54.24938773832315</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0426077402473</v>
+        <v>42.04260774024732</v>
       </c>
       <c r="S43" t="n">
-        <v>151.7307292602186</v>
+        <v>151.7307292602187</v>
       </c>
       <c r="T43" t="n">
         <v>185.7390312499643</v>
       </c>
       <c r="U43" t="n">
-        <v>253.7578064357228</v>
+        <v>253.7578064357235</v>
       </c>
       <c r="V43" t="n">
-        <v>219.7011445658737</v>
+        <v>219.7011445658738</v>
       </c>
       <c r="W43" t="n">
-        <v>254.0864995786367</v>
+        <v>254.0864995786368</v>
       </c>
       <c r="X43" t="n">
         <v>193.2731566310829</v>
@@ -3994,7 +3994,7 @@
         <v>377.7686347829082</v>
       </c>
       <c r="H44" t="n">
-        <v>216.6535819794197</v>
+        <v>254.8324666562943</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.42192026455572</v>
+        <v>60.42192026455571</v>
       </c>
       <c r="T44" t="n">
         <v>168.3445894087991</v>
@@ -4036,7 +4036,7 @@
         <v>218.5013458319404</v>
       </c>
       <c r="V44" t="n">
-        <v>295.3157597121806</v>
+        <v>257.1368750353062</v>
       </c>
       <c r="W44" t="n">
         <v>316.8044699594587</v>
@@ -4073,10 +4073,10 @@
         <v>134.6160585839572</v>
       </c>
       <c r="H45" t="n">
-        <v>85.89393637896964</v>
+        <v>85.89393637896963</v>
       </c>
       <c r="I45" t="n">
-        <v>5.616459617808545</v>
+        <v>5.61645961780853</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04260774024735</v>
+        <v>42.04260774024727</v>
       </c>
       <c r="S46" t="n">
-        <v>151.7307292602187</v>
+        <v>151.7307292602186</v>
       </c>
       <c r="T46" t="n">
         <v>185.7390312499643</v>
       </c>
       <c r="U46" t="n">
-        <v>253.7578064357234</v>
+        <v>253.7578064357232</v>
       </c>
       <c r="V46" t="n">
         <v>219.7011445658737</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="E5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="F5" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="H5" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="I5" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J5" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="K5" t="n">
         <v>4.881646670177876</v>
       </c>
       <c r="L5" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="M5" t="n">
         <v>13.73248268900505</v>
@@ -4600,19 +4600,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="U5" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F6" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G6" t="n">
         <v>9.581723550112187</v>
@@ -4652,7 +4652,7 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L6" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M6" t="n">
         <v>9.215818947438606</v>
@@ -4670,28 +4670,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R6" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="T6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H7" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I7" t="n">
         <v>0.36498292861143</v>
@@ -4731,16 +4731,16 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L7" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M7" t="n">
         <v>4.69915520587216</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>9.215818947438606</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="P7" t="n">
         <v>18.2491464305715</v>
@@ -4752,25 +4752,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S7" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T7" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U7" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V7" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W7" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X7" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F8" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.6131814684388</v>
+      </c>
+      <c r="H8" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
@@ -4807,7 +4807,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
         <v>7.082327113962777</v>
@@ -4819,37 +4819,37 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4928,7 +4928,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="10">
@@ -4968,16 +4968,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M10" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -5023,70 +5023,70 @@
         <v>1779.725667042611</v>
       </c>
       <c r="D11" t="n">
-        <v>1454.224108595411</v>
+        <v>1454.22410859541</v>
       </c>
       <c r="E11" t="n">
         <v>1101.199996156716</v>
       </c>
       <c r="F11" t="n">
-        <v>722.9782315266582</v>
+        <v>722.978231526658</v>
       </c>
       <c r="G11" t="n">
-        <v>341.3937519479629</v>
+        <v>341.3937519479628</v>
       </c>
       <c r="H11" t="n">
-        <v>83.98721997190788</v>
+        <v>83.98721997190782</v>
       </c>
       <c r="I11" t="n">
-        <v>83.98721997190788</v>
+        <v>83.98721997190782</v>
       </c>
       <c r="J11" t="n">
-        <v>333.0780121487883</v>
+        <v>333.0780121487876</v>
       </c>
       <c r="K11" t="n">
-        <v>757.1390577412035</v>
+        <v>757.1390577412025</v>
       </c>
       <c r="L11" t="n">
-        <v>1320.126044699228</v>
+        <v>1320.126044699227</v>
       </c>
       <c r="M11" t="n">
-        <v>1978.226981113235</v>
+        <v>1978.226981113233</v>
       </c>
       <c r="N11" t="n">
-        <v>2651.5904870806</v>
+        <v>2651.590487080598</v>
       </c>
       <c r="O11" t="n">
-        <v>3274.093290177139</v>
+        <v>3274.093290177136</v>
       </c>
       <c r="P11" t="n">
-        <v>3770.884029649726</v>
+        <v>3770.884029649723</v>
       </c>
       <c r="Q11" t="n">
-        <v>4095.780439038977</v>
+        <v>4095.780439038974</v>
       </c>
       <c r="R11" t="n">
-        <v>4199.360998595394</v>
+        <v>4199.360998595391</v>
       </c>
       <c r="S11" t="n">
-        <v>4138.328755903923</v>
+        <v>4176.893285880562</v>
       </c>
       <c r="T11" t="n">
-        <v>3968.283716097055</v>
+        <v>4006.848246073695</v>
       </c>
       <c r="U11" t="n">
-        <v>3747.575285963781</v>
+        <v>3786.139815940422</v>
       </c>
       <c r="V11" t="n">
-        <v>3487.841068756402</v>
+        <v>3487.841068756401</v>
       </c>
       <c r="W11" t="n">
-        <v>3167.836553645838</v>
+        <v>3167.836553645837</v>
       </c>
       <c r="X11" t="n">
-        <v>2827.134935544308</v>
+        <v>2827.134935544307</v>
       </c>
       <c r="Y11" t="n">
-        <v>2469.759743728046</v>
+        <v>2469.759743728045</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H12" t="n">
-        <v>89.6604115050478</v>
+        <v>89.66041150504778</v>
       </c>
       <c r="I12" t="n">
-        <v>83.98721997190788</v>
+        <v>83.98721997190782</v>
       </c>
       <c r="J12" t="n">
-        <v>213.5261423927051</v>
+        <v>213.526142392705</v>
       </c>
       <c r="K12" t="n">
-        <v>513.0836181907689</v>
+        <v>513.0836181907687</v>
       </c>
       <c r="L12" t="n">
-        <v>962.1981532450227</v>
+        <v>962.1981532450222</v>
       </c>
       <c r="M12" t="n">
         <v>1482.625706409188</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.764193358495</v>
+        <v>866.7641933584944</v>
       </c>
       <c r="C13" t="n">
-        <v>730.5921505901379</v>
+        <v>730.5921505901373</v>
       </c>
       <c r="D13" t="n">
-        <v>613.2396513373518</v>
+        <v>613.2396513373513</v>
       </c>
       <c r="E13" t="n">
-        <v>498.0906979145084</v>
+        <v>498.090697914508</v>
       </c>
       <c r="F13" t="n">
-        <v>383.9648905761478</v>
+        <v>383.9648905761475</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3508795166223</v>
+        <v>249.3508795166221</v>
       </c>
       <c r="H13" t="n">
-        <v>138.7845813237506</v>
+        <v>138.7845813237505</v>
       </c>
       <c r="I13" t="n">
-        <v>83.98721997190788</v>
+        <v>83.98721997190782</v>
       </c>
       <c r="J13" t="n">
-        <v>183.7204347694163</v>
+        <v>183.7204347694162</v>
       </c>
       <c r="K13" t="n">
-        <v>456.7916137562443</v>
+        <v>456.7916137562424</v>
       </c>
       <c r="L13" t="n">
-        <v>852.7748007109465</v>
+        <v>852.7748007109448</v>
       </c>
       <c r="M13" t="n">
-        <v>1278.927064672404</v>
+        <v>1278.927064672402</v>
       </c>
       <c r="N13" t="n">
-        <v>1701.144551482766</v>
+        <v>1701.144551482764</v>
       </c>
       <c r="O13" t="n">
-        <v>2077.565823652135</v>
+        <v>2077.565823652133</v>
       </c>
       <c r="P13" t="n">
-        <v>2380.773224335654</v>
+        <v>2380.773224335652</v>
       </c>
       <c r="Q13" t="n">
-        <v>2517.142588792709</v>
+        <v>2517.142588792707</v>
       </c>
       <c r="R13" t="n">
-        <v>2474.675308247005</v>
+        <v>2474.675308247003</v>
       </c>
       <c r="S13" t="n">
-        <v>2321.411945357895</v>
+        <v>2321.411945357893</v>
       </c>
       <c r="T13" t="n">
-        <v>2133.796762277123</v>
+        <v>2133.796762277121</v>
       </c>
       <c r="U13" t="n">
-        <v>1877.475745675381</v>
+        <v>1877.47574567538</v>
       </c>
       <c r="V13" t="n">
-        <v>1655.555397629044</v>
+        <v>1655.555397629043</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.902367751633</v>
+        <v>1398.902367751632</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.676957013166</v>
+        <v>1203.676957013165</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.648518029185</v>
+        <v>1015.648518029184</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>341.3937519479627</v>
       </c>
       <c r="H14" t="n">
-        <v>83.98721997190785</v>
+        <v>83.98721997190783</v>
       </c>
       <c r="I14" t="n">
-        <v>83.98721997190785</v>
+        <v>83.98721997190783</v>
       </c>
       <c r="J14" t="n">
-        <v>333.0780121487879</v>
+        <v>333.0780121487883</v>
       </c>
       <c r="K14" t="n">
-        <v>757.1390577412029</v>
+        <v>757.1390577412035</v>
       </c>
       <c r="L14" t="n">
         <v>1320.126044699228</v>
       </c>
       <c r="M14" t="n">
-        <v>1978.226981113234</v>
+        <v>1978.226981113235</v>
       </c>
       <c r="N14" t="n">
         <v>2651.590487080599</v>
@@ -5299,28 +5299,28 @@
         <v>3770.884029649725</v>
       </c>
       <c r="Q14" t="n">
-        <v>4095.780439038976</v>
+        <v>4095.780439038975</v>
       </c>
       <c r="R14" t="n">
-        <v>4199.360998595393</v>
+        <v>4199.360998595392</v>
       </c>
       <c r="S14" t="n">
-        <v>4138.328755903922</v>
+        <v>4138.328755903921</v>
       </c>
       <c r="T14" t="n">
-        <v>3968.283716097054</v>
+        <v>3968.283716097053</v>
       </c>
       <c r="U14" t="n">
-        <v>3747.575285963781</v>
+        <v>3747.57528596378</v>
       </c>
       <c r="V14" t="n">
-        <v>3449.27653877976</v>
+        <v>3449.276538779759</v>
       </c>
       <c r="W14" t="n">
-        <v>3129.272023669196</v>
+        <v>3129.272023669195</v>
       </c>
       <c r="X14" t="n">
-        <v>2788.570405567666</v>
+        <v>2788.570405567665</v>
       </c>
       <c r="Y14" t="n">
         <v>2469.759743728044</v>
@@ -5354,16 +5354,16 @@
         <v>89.66041150504779</v>
       </c>
       <c r="I15" t="n">
-        <v>83.98721997190785</v>
+        <v>83.98721997190783</v>
       </c>
       <c r="J15" t="n">
-        <v>213.5261423927051</v>
+        <v>213.526142392705</v>
       </c>
       <c r="K15" t="n">
-        <v>513.0836181907688</v>
+        <v>513.0836181907687</v>
       </c>
       <c r="L15" t="n">
-        <v>962.1981532450225</v>
+        <v>962.1981532450222</v>
       </c>
       <c r="M15" t="n">
         <v>1482.625706409188</v>
@@ -5424,25 +5424,25 @@
         <v>498.090697914508</v>
       </c>
       <c r="F16" t="n">
-        <v>383.9648905761475</v>
+        <v>383.9648905761474</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3508795166221</v>
+        <v>249.350879516622</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7845813237504</v>
+        <v>138.7845813237505</v>
       </c>
       <c r="I16" t="n">
-        <v>83.98721997190785</v>
+        <v>83.98721997190783</v>
       </c>
       <c r="J16" t="n">
         <v>183.7204347694163</v>
       </c>
       <c r="K16" t="n">
-        <v>456.7916137562427</v>
+        <v>456.7916137562426</v>
       </c>
       <c r="L16" t="n">
-        <v>852.7748007109449</v>
+        <v>852.7748007109448</v>
       </c>
       <c r="M16" t="n">
         <v>1278.927064672402</v>
@@ -5500,13 +5500,13 @@
         <v>1443.205671459227</v>
       </c>
       <c r="E17" t="n">
-        <v>1092.936168304578</v>
+        <v>1092.936168304579</v>
       </c>
       <c r="F17" t="n">
-        <v>717.4690129585662</v>
+        <v>717.4690129585664</v>
       </c>
       <c r="G17" t="n">
-        <v>338.6391426639169</v>
+        <v>338.639142663917</v>
       </c>
       <c r="H17" t="n">
         <v>83.98721997190785</v>
@@ -5518,10 +5518,10 @@
         <v>333.0780121487869</v>
       </c>
       <c r="K17" t="n">
-        <v>757.1390577412021</v>
+        <v>757.1390577412019</v>
       </c>
       <c r="L17" t="n">
-        <v>1320.126044699228</v>
+        <v>1320.126044699227</v>
       </c>
       <c r="M17" t="n">
         <v>1978.226981113235</v>
@@ -5542,25 +5542,25 @@
         <v>4199.360998595393</v>
       </c>
       <c r="S17" t="n">
-        <v>4141.083365187966</v>
+        <v>4141.083365187968</v>
       </c>
       <c r="T17" t="n">
-        <v>3973.792934665144</v>
+        <v>3973.792934665145</v>
       </c>
       <c r="U17" t="n">
-        <v>3755.839113815917</v>
+        <v>3755.839113815919</v>
       </c>
       <c r="V17" t="n">
-        <v>3460.294975915942</v>
+        <v>3460.294975915943</v>
       </c>
       <c r="W17" t="n">
-        <v>3143.045070089423</v>
+        <v>3143.045070089425</v>
       </c>
       <c r="X17" t="n">
-        <v>2805.09806127194</v>
+        <v>2805.098061271941</v>
       </c>
       <c r="Y17" t="n">
-        <v>2450.477478739724</v>
+        <v>2450.477478739725</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.4819283701735</v>
+        <v>847.4819283701743</v>
       </c>
       <c r="C19" t="n">
-        <v>714.0644948858622</v>
+        <v>714.0644948858629</v>
       </c>
       <c r="D19" t="n">
-        <v>599.4666049171221</v>
+        <v>599.4666049171227</v>
       </c>
       <c r="E19" t="n">
-        <v>487.0722607783247</v>
+        <v>487.0722607783251</v>
       </c>
       <c r="F19" t="n">
-        <v>375.7010627240099</v>
+        <v>375.7010627240103</v>
       </c>
       <c r="G19" t="n">
-        <v>243.8416609485304</v>
+        <v>243.8416609485306</v>
       </c>
       <c r="H19" t="n">
-        <v>136.0299720397046</v>
+        <v>136.0299720397047</v>
       </c>
       <c r="I19" t="n">
         <v>83.98721997190785</v>
       </c>
       <c r="J19" t="n">
-        <v>186.4202273287096</v>
+        <v>186.4202273287095</v>
       </c>
       <c r="K19" t="n">
-        <v>462.1911988748293</v>
+        <v>462.1911988748291</v>
       </c>
       <c r="L19" t="n">
-        <v>860.8741783888249</v>
+        <v>860.8741783888245</v>
       </c>
       <c r="M19" t="n">
         <v>1289.726234909575</v>
       </c>
       <c r="N19" t="n">
-        <v>1679.831587949563</v>
+        <v>1714.643514279231</v>
       </c>
       <c r="O19" t="n">
-        <v>2058.952652678225</v>
+        <v>2093.764579007892</v>
       </c>
       <c r="P19" t="n">
-        <v>2364.859845921038</v>
+        <v>2364.859845921037</v>
       </c>
       <c r="Q19" t="n">
-        <v>2473.068840247974</v>
+        <v>2473.068840247975</v>
       </c>
       <c r="R19" t="n">
-        <v>2433.356168986315</v>
+        <v>2433.356168986317</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.847415381251</v>
+        <v>2282.847415381253</v>
       </c>
       <c r="T19" t="n">
-        <v>2097.986841584525</v>
+        <v>2097.986841584526</v>
       </c>
       <c r="U19" t="n">
-        <v>1844.42043426683</v>
+        <v>1844.420434266831</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.254695504539</v>
+        <v>1625.25469550454</v>
       </c>
       <c r="W19" t="n">
-        <v>1371.356274911174</v>
+        <v>1371.356274911175</v>
       </c>
       <c r="X19" t="n">
-        <v>1178.885473456752</v>
+        <v>1178.885473456753</v>
       </c>
       <c r="Y19" t="n">
-        <v>993.6116437568176</v>
+        <v>993.6116437568185</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>717.4690129585663</v>
       </c>
       <c r="G20" t="n">
-        <v>338.6391426639169</v>
+        <v>338.639142663917</v>
       </c>
       <c r="H20" t="n">
         <v>83.98721997190785</v>
@@ -5752,25 +5752,25 @@
         <v>83.98721997190785</v>
       </c>
       <c r="J20" t="n">
-        <v>333.0780121487883</v>
+        <v>333.0780121487876</v>
       </c>
       <c r="K20" t="n">
-        <v>757.1390577412026</v>
+        <v>757.1390577412027</v>
       </c>
       <c r="L20" t="n">
-        <v>1320.126044699228</v>
+        <v>1320.126044699227</v>
       </c>
       <c r="M20" t="n">
         <v>1978.226981113234</v>
       </c>
       <c r="N20" t="n">
-        <v>2651.590487080599</v>
+        <v>2651.590487080598</v>
       </c>
       <c r="O20" t="n">
         <v>3274.093290177138</v>
       </c>
       <c r="P20" t="n">
-        <v>3770.884029649726</v>
+        <v>3770.884029649725</v>
       </c>
       <c r="Q20" t="n">
         <v>4095.780439038976</v>
@@ -5782,7 +5782,7 @@
         <v>4141.083365187968</v>
       </c>
       <c r="T20" t="n">
-        <v>3973.792934665146</v>
+        <v>3973.792934665145</v>
       </c>
       <c r="U20" t="n">
         <v>3755.839113815918</v>
@@ -5825,7 +5825,7 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H21" t="n">
-        <v>89.66041150504779</v>
+        <v>89.66041150504778</v>
       </c>
       <c r="I21" t="n">
         <v>83.98721997190785</v>
@@ -5834,16 +5834,16 @@
         <v>213.5261423927051</v>
       </c>
       <c r="K21" t="n">
-        <v>513.0836181907688</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L21" t="n">
-        <v>962.1981532450225</v>
+        <v>962.1981532450227</v>
       </c>
       <c r="M21" t="n">
         <v>1505.650500461512</v>
       </c>
       <c r="N21" t="n">
-        <v>2054.870265079317</v>
+        <v>2077.895059131641</v>
       </c>
       <c r="O21" t="n">
         <v>2556.142444014732</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.4819283701735</v>
+        <v>847.4819283701738</v>
       </c>
       <c r="C22" t="n">
-        <v>714.0644948858622</v>
+        <v>714.0644948858625</v>
       </c>
       <c r="D22" t="n">
-        <v>599.4666049171221</v>
+        <v>599.4666049171224</v>
       </c>
       <c r="E22" t="n">
-        <v>487.0722607783247</v>
+        <v>487.0722607783249</v>
       </c>
       <c r="F22" t="n">
-        <v>375.7010627240099</v>
+        <v>375.7010627240101</v>
       </c>
       <c r="G22" t="n">
-        <v>243.8416609485304</v>
+        <v>243.8416609485305</v>
       </c>
       <c r="H22" t="n">
-        <v>136.0299720397046</v>
+        <v>136.0299720397047</v>
       </c>
       <c r="I22" t="n">
         <v>83.98721997190785</v>
       </c>
       <c r="J22" t="n">
-        <v>155.5600646392972</v>
+        <v>186.4202273287096</v>
       </c>
       <c r="K22" t="n">
-        <v>431.3310361854168</v>
+        <v>462.1911988748292</v>
       </c>
       <c r="L22" t="n">
-        <v>830.0140156994124</v>
+        <v>860.8741783888247</v>
       </c>
       <c r="M22" t="n">
-        <v>1224.054145890495</v>
+        <v>1289.726234909575</v>
       </c>
       <c r="N22" t="n">
-        <v>1648.971425260151</v>
+        <v>1714.643514279231</v>
       </c>
       <c r="O22" t="n">
-        <v>2028.092489988813</v>
+        <v>2058.952652678225</v>
       </c>
       <c r="P22" t="n">
         <v>2333.999683231626</v>
@@ -5937,7 +5937,7 @@
         <v>2433.356168986315</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.847415381251</v>
+        <v>2282.847415381252</v>
       </c>
       <c r="T22" t="n">
         <v>2097.986841584525</v>
@@ -5955,7 +5955,7 @@
         <v>1178.885473456752</v>
       </c>
       <c r="Y22" t="n">
-        <v>993.6116437568176</v>
+        <v>993.6116437568179</v>
       </c>
     </row>
     <row r="23">
@@ -5974,22 +5974,22 @@
         <v>1443.205671459227</v>
       </c>
       <c r="E23" t="n">
-        <v>1092.936168304578</v>
+        <v>1092.936168304579</v>
       </c>
       <c r="F23" t="n">
-        <v>717.4690129585665</v>
+        <v>717.4690129585667</v>
       </c>
       <c r="G23" t="n">
-        <v>338.6391426639169</v>
+        <v>338.639142663917</v>
       </c>
       <c r="H23" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="I23" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J23" t="n">
-        <v>333.0780121487877</v>
+        <v>333.0780121487876</v>
       </c>
       <c r="K23" t="n">
         <v>757.1390577412027</v>
@@ -6001,40 +6001,40 @@
         <v>1978.226981113234</v>
       </c>
       <c r="N23" t="n">
-        <v>2651.590487080598</v>
+        <v>2651.590487080599</v>
       </c>
       <c r="O23" t="n">
-        <v>3274.093290177137</v>
+        <v>3274.093290177138</v>
       </c>
       <c r="P23" t="n">
-        <v>3770.884029649724</v>
+        <v>3770.884029649726</v>
       </c>
       <c r="Q23" t="n">
-        <v>4095.780439038975</v>
+        <v>4095.780439038976</v>
       </c>
       <c r="R23" t="n">
-        <v>4199.360998595392</v>
+        <v>4199.360998595393</v>
       </c>
       <c r="S23" t="n">
         <v>4141.083365187968</v>
       </c>
       <c r="T23" t="n">
-        <v>3973.792934665145</v>
+        <v>3973.792934665146</v>
       </c>
       <c r="U23" t="n">
-        <v>3755.839113815918</v>
+        <v>3755.839113815919</v>
       </c>
       <c r="V23" t="n">
-        <v>3460.294975915943</v>
+        <v>3460.294975915944</v>
       </c>
       <c r="W23" t="n">
-        <v>3143.045070089424</v>
+        <v>3143.045070089425</v>
       </c>
       <c r="X23" t="n">
-        <v>2805.09806127194</v>
+        <v>2805.098061271941</v>
       </c>
       <c r="Y23" t="n">
-        <v>2450.477478739724</v>
+        <v>2450.477478739725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>89.66041150504778</v>
       </c>
       <c r="I24" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J24" t="n">
-        <v>213.526142392705</v>
+        <v>213.5261423927051</v>
       </c>
       <c r="K24" t="n">
-        <v>513.0836181907687</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L24" t="n">
-        <v>962.1981532450224</v>
+        <v>962.1981532450227</v>
       </c>
       <c r="M24" t="n">
         <v>1505.650500461512</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.4819283701735</v>
+        <v>847.4819283701743</v>
       </c>
       <c r="C25" t="n">
-        <v>714.0644948858622</v>
+        <v>714.0644948858629</v>
       </c>
       <c r="D25" t="n">
-        <v>599.4666049171221</v>
+        <v>599.4666049171227</v>
       </c>
       <c r="E25" t="n">
-        <v>487.0722607783247</v>
+        <v>487.0722607783251</v>
       </c>
       <c r="F25" t="n">
-        <v>375.7010627240099</v>
+        <v>375.7010627240103</v>
       </c>
       <c r="G25" t="n">
-        <v>243.8416609485304</v>
+        <v>243.8416609485306</v>
       </c>
       <c r="H25" t="n">
-        <v>136.0299720397046</v>
+        <v>136.0299720397047</v>
       </c>
       <c r="I25" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J25" t="n">
-        <v>151.6083009990415</v>
+        <v>186.4202273287095</v>
       </c>
       <c r="K25" t="n">
-        <v>427.3792725451612</v>
+        <v>462.1911988748291</v>
       </c>
       <c r="L25" t="n">
-        <v>826.0622520591568</v>
+        <v>830.0140156994153</v>
       </c>
       <c r="M25" t="n">
-        <v>1254.914308579907</v>
+        <v>1258.866072220166</v>
       </c>
       <c r="N25" t="n">
-        <v>1679.831587949563</v>
+        <v>1683.783351589822</v>
       </c>
       <c r="O25" t="n">
-        <v>2028.092489988813</v>
+        <v>2062.904416318484</v>
       </c>
       <c r="P25" t="n">
-        <v>2333.999683231626</v>
+        <v>2333.999683231628</v>
       </c>
       <c r="Q25" t="n">
-        <v>2473.068840247974</v>
+        <v>2473.068840247976</v>
       </c>
       <c r="R25" t="n">
-        <v>2433.356168986315</v>
+        <v>2433.356168986317</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.847415381251</v>
+        <v>2282.847415381253</v>
       </c>
       <c r="T25" t="n">
-        <v>2097.986841584525</v>
+        <v>2097.986841584527</v>
       </c>
       <c r="U25" t="n">
-        <v>1844.42043426683</v>
+        <v>1844.420434266831</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.254695504539</v>
+        <v>1625.25469550454</v>
       </c>
       <c r="W25" t="n">
-        <v>1371.356274911174</v>
+        <v>1371.356274911175</v>
       </c>
       <c r="X25" t="n">
-        <v>1178.885473456752</v>
+        <v>1178.885473456753</v>
       </c>
       <c r="Y25" t="n">
-        <v>993.6116437568176</v>
+        <v>993.6116437568185</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2116.474127482809</v>
+        <v>2104.863696813679</v>
       </c>
       <c r="C26" t="n">
-        <v>1780.275750701947</v>
+        <v>1768.665320032817</v>
       </c>
       <c r="D26" t="n">
-        <v>1454.774192254747</v>
+        <v>1443.163761585616</v>
       </c>
       <c r="E26" t="n">
-        <v>1101.750079816052</v>
+        <v>1090.139649146922</v>
       </c>
       <c r="F26" t="n">
-        <v>723.5283151859948</v>
+        <v>711.917884516864</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9438356072996</v>
+        <v>330.3334049381688</v>
       </c>
       <c r="H26" t="n">
-        <v>84.53730363124474</v>
+        <v>84.5373036312448</v>
       </c>
       <c r="I26" t="n">
-        <v>84.53730363124474</v>
+        <v>84.5373036312448</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6280958081244</v>
+        <v>333.6280958081246</v>
       </c>
       <c r="K26" t="n">
-        <v>757.6891414005395</v>
+        <v>757.6891414005397</v>
       </c>
       <c r="L26" t="n">
-        <v>1320.676128358564</v>
+        <v>1320.676128358565</v>
       </c>
       <c r="M26" t="n">
-        <v>1978.777064772571</v>
+        <v>1978.777064772572</v>
       </c>
       <c r="N26" t="n">
-        <v>2652.140570739935</v>
+        <v>2652.140570739936</v>
       </c>
       <c r="O26" t="n">
-        <v>3274.643373836474</v>
+        <v>3274.643373836475</v>
       </c>
       <c r="P26" t="n">
-        <v>3771.434113309061</v>
+        <v>3771.434113309063</v>
       </c>
       <c r="Q26" t="n">
-        <v>4096.330522698311</v>
+        <v>4123.284622005823</v>
       </c>
       <c r="R26" t="n">
-        <v>4226.865181562237</v>
+        <v>4226.86518156224</v>
       </c>
       <c r="S26" t="n">
-        <v>4165.832938870767</v>
+        <v>4165.832938870769</v>
       </c>
       <c r="T26" t="n">
-        <v>4007.398329733031</v>
+        <v>3995.787899063901</v>
       </c>
       <c r="U26" t="n">
-        <v>3786.689899599758</v>
+        <v>3775.079468930628</v>
       </c>
       <c r="V26" t="n">
-        <v>3488.391152415737</v>
+        <v>3476.780721746607</v>
       </c>
       <c r="W26" t="n">
-        <v>3168.386637305173</v>
+        <v>3156.776206636043</v>
       </c>
       <c r="X26" t="n">
-        <v>2827.685019203643</v>
+        <v>2816.074588534513</v>
       </c>
       <c r="Y26" t="n">
-        <v>2470.309827387381</v>
+        <v>2458.699396718251</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>176.9720470623338</v>
       </c>
       <c r="H27" t="n">
-        <v>90.21049516438468</v>
+        <v>90.21049516438472</v>
       </c>
       <c r="I27" t="n">
-        <v>84.53730363124474</v>
+        <v>84.5373036312448</v>
       </c>
       <c r="J27" t="n">
-        <v>214.0762260520419</v>
+        <v>214.076226052042</v>
       </c>
       <c r="K27" t="n">
-        <v>513.6337018501056</v>
+        <v>513.6337018501058</v>
       </c>
       <c r="L27" t="n">
-        <v>962.7482369043593</v>
+        <v>962.7482369043596</v>
       </c>
       <c r="M27" t="n">
         <v>1506.200584120849</v>
       </c>
       <c r="N27" t="n">
-        <v>2055.420348738654</v>
+        <v>2078.445142790978</v>
       </c>
       <c r="O27" t="n">
         <v>2556.692527674069</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>867.3142770178309</v>
+        <v>867.314277017831</v>
       </c>
       <c r="C28" t="n">
-        <v>731.1422342494739</v>
+        <v>731.142234249474</v>
       </c>
       <c r="D28" t="n">
-        <v>613.789734996688</v>
+        <v>613.7897349966881</v>
       </c>
       <c r="E28" t="n">
-        <v>498.6407815738447</v>
+        <v>498.6407815738448</v>
       </c>
       <c r="F28" t="n">
-        <v>384.5149742354842</v>
+        <v>384.5149742354844</v>
       </c>
       <c r="G28" t="n">
-        <v>249.9009631759589</v>
+        <v>249.900963175959</v>
       </c>
       <c r="H28" t="n">
-        <v>139.3346649830873</v>
+        <v>139.3346649830874</v>
       </c>
       <c r="I28" t="n">
-        <v>84.53730363124474</v>
+        <v>84.5373036312448</v>
       </c>
       <c r="J28" t="n">
-        <v>184.2705184287533</v>
+        <v>184.2705184287532</v>
       </c>
       <c r="K28" t="n">
         <v>457.3416974155796</v>
@@ -6408,7 +6408,7 @@
         <v>2517.692672452044</v>
       </c>
       <c r="R28" t="n">
-        <v>2475.22539190634</v>
+        <v>2475.225391906341</v>
       </c>
       <c r="S28" t="n">
         <v>2321.962029017231</v>
@@ -6417,10 +6417,10 @@
         <v>2134.346845936459</v>
       </c>
       <c r="U28" t="n">
-        <v>1878.025829334716</v>
+        <v>1878.025829334717</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.105481288379</v>
+        <v>1656.10548128838</v>
       </c>
       <c r="W28" t="n">
         <v>1399.452451410969</v>
@@ -6457,16 +6457,16 @@
         <v>341.5788526786882</v>
       </c>
       <c r="H29" t="n">
-        <v>84.17232070263331</v>
+        <v>84.17232070263336</v>
       </c>
       <c r="I29" t="n">
-        <v>84.17232070263331</v>
+        <v>84.17232070263336</v>
       </c>
       <c r="J29" t="n">
-        <v>333.263112879513</v>
+        <v>333.2631128795132</v>
       </c>
       <c r="K29" t="n">
-        <v>757.3241584719281</v>
+        <v>757.3241584719283</v>
       </c>
       <c r="L29" t="n">
         <v>1320.311145429953</v>
@@ -6475,31 +6475,31 @@
         <v>1978.41208184396</v>
       </c>
       <c r="N29" t="n">
-        <v>2651.775587811324</v>
+        <v>2651.775587811325</v>
       </c>
       <c r="O29" t="n">
-        <v>3274.278390907863</v>
+        <v>3274.278390907864</v>
       </c>
       <c r="P29" t="n">
-        <v>3771.06913038045</v>
+        <v>3780.139066186</v>
       </c>
       <c r="Q29" t="n">
-        <v>4095.9655397697</v>
+        <v>4105.035475575251</v>
       </c>
       <c r="R29" t="n">
-        <v>4208.616035131666</v>
+        <v>4208.616035131668</v>
       </c>
       <c r="S29" t="n">
-        <v>4147.583792440195</v>
+        <v>4147.583792440197</v>
       </c>
       <c r="T29" t="n">
-        <v>4007.033346804421</v>
+        <v>3977.538752633329</v>
       </c>
       <c r="U29" t="n">
-        <v>3786.324916671148</v>
+        <v>3756.830322500055</v>
       </c>
       <c r="V29" t="n">
-        <v>3488.026169487127</v>
+        <v>3458.531575316034</v>
       </c>
       <c r="W29" t="n">
         <v>3168.021654376563</v>
@@ -6536,25 +6536,25 @@
         <v>176.6070641337224</v>
       </c>
       <c r="H30" t="n">
-        <v>89.84551223577326</v>
+        <v>89.84551223577328</v>
       </c>
       <c r="I30" t="n">
-        <v>84.17232070263331</v>
+        <v>84.17232070263336</v>
       </c>
       <c r="J30" t="n">
-        <v>213.7112431234305</v>
+        <v>213.7112431234306</v>
       </c>
       <c r="K30" t="n">
-        <v>513.2687189214942</v>
+        <v>513.2687189214944</v>
       </c>
       <c r="L30" t="n">
-        <v>962.3832539757478</v>
+        <v>962.3832539757482</v>
       </c>
       <c r="M30" t="n">
-        <v>1505.835601192237</v>
+        <v>1505.835601192238</v>
       </c>
       <c r="N30" t="n">
-        <v>2055.055365810042</v>
+        <v>2078.080159862367</v>
       </c>
       <c r="O30" t="n">
         <v>2556.327544745458</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.9492940892201</v>
+        <v>866.9492940892203</v>
       </c>
       <c r="C31" t="n">
-        <v>730.7772513208629</v>
+        <v>730.7772513208631</v>
       </c>
       <c r="D31" t="n">
-        <v>613.4247520680769</v>
+        <v>613.4247520680772</v>
       </c>
       <c r="E31" t="n">
-        <v>498.2757986452336</v>
+        <v>498.2757986452338</v>
       </c>
       <c r="F31" t="n">
-        <v>384.1499913068731</v>
+        <v>384.1499913068732</v>
       </c>
       <c r="G31" t="n">
-        <v>249.5359802473476</v>
+        <v>249.5359802473477</v>
       </c>
       <c r="H31" t="n">
         <v>138.969682054476</v>
       </c>
       <c r="I31" t="n">
-        <v>84.17232070263331</v>
+        <v>84.17232070263336</v>
       </c>
       <c r="J31" t="n">
-        <v>183.9055355001417</v>
+        <v>183.9055355001418</v>
       </c>
       <c r="K31" t="n">
-        <v>456.976714486968</v>
+        <v>456.9767144869684</v>
       </c>
       <c r="L31" t="n">
-        <v>852.9599014416701</v>
+        <v>852.9599014416704</v>
       </c>
       <c r="M31" t="n">
-        <v>1279.112165403127</v>
+        <v>1279.112165403128</v>
       </c>
       <c r="N31" t="n">
-        <v>1701.329652213489</v>
+        <v>1701.32965221349</v>
       </c>
       <c r="O31" t="n">
-        <v>2077.750924382858</v>
+        <v>2077.750924382859</v>
       </c>
       <c r="P31" t="n">
-        <v>2380.958325066377</v>
+        <v>2380.958325066378</v>
       </c>
       <c r="Q31" t="n">
         <v>2517.327689523433</v>
@@ -6663,7 +6663,7 @@
         <v>1399.087468482358</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.86205774389</v>
+        <v>1203.862057743891</v>
       </c>
       <c r="Y31" t="n">
         <v>1015.83361875991</v>
@@ -6685,67 +6685,67 @@
         <v>1443.205671459227</v>
       </c>
       <c r="E32" t="n">
-        <v>1092.936168304578</v>
+        <v>1092.936168304579</v>
       </c>
       <c r="F32" t="n">
-        <v>717.4690129585661</v>
+        <v>717.4690129585665</v>
       </c>
       <c r="G32" t="n">
-        <v>338.6391426639169</v>
+        <v>338.6391426639171</v>
       </c>
       <c r="H32" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="I32" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J32" t="n">
-        <v>333.0780121487877</v>
+        <v>333.0780121487883</v>
       </c>
       <c r="K32" t="n">
-        <v>757.1390577412027</v>
+        <v>757.1390577412035</v>
       </c>
       <c r="L32" t="n">
-        <v>1320.126044699227</v>
+        <v>1320.126044699229</v>
       </c>
       <c r="M32" t="n">
-        <v>1978.226981113233</v>
+        <v>1978.226981113236</v>
       </c>
       <c r="N32" t="n">
-        <v>2651.590487080598</v>
+        <v>2651.5904870806</v>
       </c>
       <c r="O32" t="n">
-        <v>3274.093290177137</v>
+        <v>3274.093290177139</v>
       </c>
       <c r="P32" t="n">
-        <v>3770.884029649724</v>
+        <v>3770.884029649726</v>
       </c>
       <c r="Q32" t="n">
-        <v>4095.780439038975</v>
+        <v>4095.780439038977</v>
       </c>
       <c r="R32" t="n">
-        <v>4199.360998595392</v>
+        <v>4199.360998595394</v>
       </c>
       <c r="S32" t="n">
         <v>4141.083365187968</v>
       </c>
       <c r="T32" t="n">
-        <v>3973.792934665145</v>
+        <v>3973.792934665146</v>
       </c>
       <c r="U32" t="n">
-        <v>3755.839113815918</v>
+        <v>3755.83911381592</v>
       </c>
       <c r="V32" t="n">
-        <v>3460.294975915943</v>
+        <v>3460.294975915944</v>
       </c>
       <c r="W32" t="n">
-        <v>3143.045070089424</v>
+        <v>3143.045070089426</v>
       </c>
       <c r="X32" t="n">
-        <v>2805.09806127194</v>
+        <v>2805.098061271941</v>
       </c>
       <c r="Y32" t="n">
-        <v>2450.477478739724</v>
+        <v>2450.477478739725</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H33" t="n">
-        <v>89.66041150504778</v>
+        <v>89.6604115050478</v>
       </c>
       <c r="I33" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J33" t="n">
-        <v>213.526142392705</v>
+        <v>213.5261423927051</v>
       </c>
       <c r="K33" t="n">
-        <v>513.0836181907687</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L33" t="n">
-        <v>962.1981532450224</v>
+        <v>962.1981532450227</v>
       </c>
       <c r="M33" t="n">
         <v>1505.650500461512</v>
       </c>
       <c r="N33" t="n">
-        <v>2054.870265079317</v>
+        <v>2077.895059131641</v>
       </c>
       <c r="O33" t="n">
         <v>2556.142444014732</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.4819283701738</v>
+        <v>847.4819283701747</v>
       </c>
       <c r="C34" t="n">
-        <v>714.0644948858625</v>
+        <v>714.0644948858633</v>
       </c>
       <c r="D34" t="n">
-        <v>599.4666049171224</v>
+        <v>599.466604917123</v>
       </c>
       <c r="E34" t="n">
-        <v>487.0722607783249</v>
+        <v>487.0722607783254</v>
       </c>
       <c r="F34" t="n">
-        <v>375.7010627240101</v>
+        <v>375.7010627240105</v>
       </c>
       <c r="G34" t="n">
-        <v>243.8416609485305</v>
+        <v>243.8416609485308</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0299720397047</v>
+        <v>136.0299720397048</v>
       </c>
       <c r="I34" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J34" t="n">
-        <v>186.4202273287096</v>
+        <v>186.4202273287095</v>
       </c>
       <c r="K34" t="n">
-        <v>462.1911988748292</v>
+        <v>462.191198874829</v>
       </c>
       <c r="L34" t="n">
-        <v>860.8741783888247</v>
+        <v>860.8741783888245</v>
       </c>
       <c r="M34" t="n">
         <v>1289.726234909575</v>
@@ -6873,37 +6873,37 @@
         <v>1714.643514279231</v>
       </c>
       <c r="O34" t="n">
-        <v>2093.764579007893</v>
+        <v>2093.764579007892</v>
       </c>
       <c r="P34" t="n">
-        <v>2364.859845921038</v>
+        <v>2368.811609561297</v>
       </c>
       <c r="Q34" t="n">
-        <v>2473.068840247975</v>
+        <v>2473.068840247977</v>
       </c>
       <c r="R34" t="n">
-        <v>2433.356168986316</v>
+        <v>2433.356168986318</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.847415381252</v>
+        <v>2282.847415381254</v>
       </c>
       <c r="T34" t="n">
-        <v>2097.986841584525</v>
+        <v>2097.986841584528</v>
       </c>
       <c r="U34" t="n">
-        <v>1844.42043426683</v>
+        <v>1844.420434266832</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.254695504539</v>
+        <v>1625.254695504541</v>
       </c>
       <c r="W34" t="n">
-        <v>1371.356274911174</v>
+        <v>1371.356274911175</v>
       </c>
       <c r="X34" t="n">
-        <v>1178.885473456752</v>
+        <v>1178.885473456754</v>
       </c>
       <c r="Y34" t="n">
-        <v>993.6116437568179</v>
+        <v>993.6116437568189</v>
       </c>
     </row>
     <row r="35">
@@ -6922,67 +6922,67 @@
         <v>1443.205671459227</v>
       </c>
       <c r="E35" t="n">
-        <v>1092.936168304578</v>
+        <v>1092.936168304579</v>
       </c>
       <c r="F35" t="n">
         <v>717.4690129585665</v>
       </c>
       <c r="G35" t="n">
-        <v>338.6391426639168</v>
+        <v>338.639142663917</v>
       </c>
       <c r="H35" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="I35" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J35" t="n">
         <v>333.0780121487877</v>
       </c>
       <c r="K35" t="n">
-        <v>757.1390577412027</v>
+        <v>757.1390577412028</v>
       </c>
       <c r="L35" t="n">
-        <v>1320.126044699227</v>
+        <v>1320.126044699228</v>
       </c>
       <c r="M35" t="n">
-        <v>1978.226981113233</v>
+        <v>1978.226981113235</v>
       </c>
       <c r="N35" t="n">
-        <v>2651.590487080598</v>
+        <v>2651.590487080599</v>
       </c>
       <c r="O35" t="n">
-        <v>3274.093290177137</v>
+        <v>3274.093290177138</v>
       </c>
       <c r="P35" t="n">
-        <v>3770.884029649724</v>
+        <v>3770.884029649726</v>
       </c>
       <c r="Q35" t="n">
-        <v>4095.780439038975</v>
+        <v>4095.780439038977</v>
       </c>
       <c r="R35" t="n">
-        <v>4199.360998595392</v>
+        <v>4199.360998595394</v>
       </c>
       <c r="S35" t="n">
-        <v>4141.083365187967</v>
+        <v>4141.083365187968</v>
       </c>
       <c r="T35" t="n">
-        <v>3973.792934665145</v>
+        <v>3973.792934665146</v>
       </c>
       <c r="U35" t="n">
-        <v>3755.839113815918</v>
+        <v>3755.839113815919</v>
       </c>
       <c r="V35" t="n">
-        <v>3460.294975915943</v>
+        <v>3460.294975915944</v>
       </c>
       <c r="W35" t="n">
-        <v>3143.045070089424</v>
+        <v>3143.045070089425</v>
       </c>
       <c r="X35" t="n">
-        <v>2805.09806127194</v>
+        <v>2805.098061271941</v>
       </c>
       <c r="Y35" t="n">
-        <v>2450.477478739724</v>
+        <v>2450.477478739725</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H36" t="n">
-        <v>89.66041150504778</v>
+        <v>89.6604115050478</v>
       </c>
       <c r="I36" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J36" t="n">
-        <v>213.526142392705</v>
+        <v>213.5261423927051</v>
       </c>
       <c r="K36" t="n">
-        <v>513.0836181907687</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L36" t="n">
-        <v>962.1981532450224</v>
+        <v>962.1981532450227</v>
       </c>
       <c r="M36" t="n">
         <v>1505.650500461512</v>
       </c>
       <c r="N36" t="n">
-        <v>2054.870265079317</v>
+        <v>2077.895059131641</v>
       </c>
       <c r="O36" t="n">
         <v>2556.142444014732</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.4819283701731</v>
+        <v>847.4819283701747</v>
       </c>
       <c r="C37" t="n">
-        <v>714.0644948858619</v>
+        <v>714.0644948858633</v>
       </c>
       <c r="D37" t="n">
-        <v>599.4666049171219</v>
+        <v>599.466604917123</v>
       </c>
       <c r="E37" t="n">
-        <v>487.0722607783244</v>
+        <v>487.0722607783254</v>
       </c>
       <c r="F37" t="n">
-        <v>375.7010627240098</v>
+        <v>375.7010627240105</v>
       </c>
       <c r="G37" t="n">
-        <v>243.8416609485303</v>
+        <v>243.8416609485308</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0299720397045</v>
+        <v>136.0299720397048</v>
       </c>
       <c r="I37" t="n">
-        <v>83.98721997190783</v>
+        <v>83.98721997190788</v>
       </c>
       <c r="J37" t="n">
-        <v>186.4202273287097</v>
+        <v>186.4202273287095</v>
       </c>
       <c r="K37" t="n">
-        <v>431.3310361854151</v>
+        <v>431.3310361854209</v>
       </c>
       <c r="L37" t="n">
-        <v>830.0140156994107</v>
+        <v>795.2020893697484</v>
       </c>
       <c r="M37" t="n">
-        <v>1258.866072220161</v>
+        <v>1224.054145890499</v>
       </c>
       <c r="N37" t="n">
-        <v>1648.971425260149</v>
+        <v>1648.971425260155</v>
       </c>
       <c r="O37" t="n">
-        <v>2028.092489988811</v>
+        <v>2028.092489988816</v>
       </c>
       <c r="P37" t="n">
-        <v>2333.999683231624</v>
+        <v>2333.999683231629</v>
       </c>
       <c r="Q37" t="n">
-        <v>2473.068840247972</v>
+        <v>2473.068840247977</v>
       </c>
       <c r="R37" t="n">
-        <v>2433.356168986314</v>
+        <v>2433.356168986318</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.84741538125</v>
+        <v>2282.847415381254</v>
       </c>
       <c r="T37" t="n">
-        <v>2097.986841584524</v>
+        <v>2097.986841584528</v>
       </c>
       <c r="U37" t="n">
-        <v>1844.420434266829</v>
+        <v>1844.420434266832</v>
       </c>
       <c r="V37" t="n">
-        <v>1625.254695504538</v>
+        <v>1625.254695504541</v>
       </c>
       <c r="W37" t="n">
-        <v>1371.356274911173</v>
+        <v>1371.356274911175</v>
       </c>
       <c r="X37" t="n">
-        <v>1178.885473456751</v>
+        <v>1178.885473456754</v>
       </c>
       <c r="Y37" t="n">
-        <v>993.6116437568171</v>
+        <v>993.6116437568189</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2099.396388119197</v>
+        <v>2099.396388119198</v>
       </c>
       <c r="C38" t="n">
-        <v>1765.952620622381</v>
+        <v>1765.952620622382</v>
       </c>
       <c r="D38" t="n">
-        <v>1443.205671459226</v>
+        <v>1443.205671459227</v>
       </c>
       <c r="E38" t="n">
         <v>1092.936168304578</v>
       </c>
       <c r="F38" t="n">
-        <v>717.4690129585659</v>
+        <v>717.4690129585661</v>
       </c>
       <c r="G38" t="n">
-        <v>338.6391426639167</v>
+        <v>338.639142663917</v>
       </c>
       <c r="H38" t="n">
-        <v>83.98721997190781</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="I38" t="n">
-        <v>83.98721997190781</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J38" t="n">
-        <v>333.0780121487875</v>
+        <v>333.0780121487874</v>
       </c>
       <c r="K38" t="n">
-        <v>757.1390577412025</v>
+        <v>757.1390577412024</v>
       </c>
       <c r="L38" t="n">
-        <v>1320.126044699227</v>
+        <v>1320.126044699228</v>
       </c>
       <c r="M38" t="n">
         <v>1978.226981113234</v>
@@ -7192,34 +7192,34 @@
         <v>3274.093290177138</v>
       </c>
       <c r="P38" t="n">
-        <v>3770.884029649722</v>
+        <v>3770.884029649726</v>
       </c>
       <c r="Q38" t="n">
-        <v>4095.780439038973</v>
+        <v>4095.780439038976</v>
       </c>
       <c r="R38" t="n">
-        <v>4199.36099859539</v>
+        <v>4199.360998595393</v>
       </c>
       <c r="S38" t="n">
-        <v>4141.083365187966</v>
+        <v>4141.083365187968</v>
       </c>
       <c r="T38" t="n">
-        <v>3973.792934665144</v>
+        <v>3973.792934665146</v>
       </c>
       <c r="U38" t="n">
-        <v>3755.839113815916</v>
+        <v>3755.839113815919</v>
       </c>
       <c r="V38" t="n">
-        <v>3460.294975915941</v>
+        <v>3460.294975915944</v>
       </c>
       <c r="W38" t="n">
-        <v>3143.045070089423</v>
+        <v>3143.045070089425</v>
       </c>
       <c r="X38" t="n">
-        <v>2805.098061271939</v>
+        <v>2805.09806127194</v>
       </c>
       <c r="Y38" t="n">
-        <v>2450.477478739723</v>
+        <v>2450.477478739724</v>
       </c>
     </row>
     <row r="39">
@@ -7247,19 +7247,19 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H39" t="n">
-        <v>89.66041150504775</v>
+        <v>89.66041150504778</v>
       </c>
       <c r="I39" t="n">
-        <v>83.98721997190781</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J39" t="n">
-        <v>213.526142392705</v>
+        <v>213.5261423927051</v>
       </c>
       <c r="K39" t="n">
-        <v>513.0836181907687</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L39" t="n">
-        <v>962.1981532450224</v>
+        <v>962.1981532450227</v>
       </c>
       <c r="M39" t="n">
         <v>1505.650500461512</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.4819283701727</v>
+        <v>847.4819283701743</v>
       </c>
       <c r="C40" t="n">
-        <v>714.0644948858616</v>
+        <v>714.0644948858629</v>
       </c>
       <c r="D40" t="n">
-        <v>599.4666049171216</v>
+        <v>599.4666049171227</v>
       </c>
       <c r="E40" t="n">
-        <v>487.0722607783242</v>
+        <v>487.0722607783251</v>
       </c>
       <c r="F40" t="n">
-        <v>375.7010627240096</v>
+        <v>375.7010627240103</v>
       </c>
       <c r="G40" t="n">
-        <v>243.8416609485301</v>
+        <v>243.8416609485306</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0299720397045</v>
+        <v>136.0299720397047</v>
       </c>
       <c r="I40" t="n">
-        <v>83.98721997190781</v>
+        <v>83.98721997190785</v>
       </c>
       <c r="J40" t="n">
-        <v>186.4202273287097</v>
+        <v>155.5600646393002</v>
       </c>
       <c r="K40" t="n">
-        <v>427.3792725451613</v>
+        <v>396.5191098557517</v>
       </c>
       <c r="L40" t="n">
-        <v>795.2020893697409</v>
+        <v>795.2020893697472</v>
       </c>
       <c r="M40" t="n">
-        <v>1224.054145890492</v>
+        <v>1224.054145890498</v>
       </c>
       <c r="N40" t="n">
-        <v>1648.971425260147</v>
+        <v>1648.971425260154</v>
       </c>
       <c r="O40" t="n">
-        <v>2028.09248998881</v>
+        <v>2028.092489988815</v>
       </c>
       <c r="P40" t="n">
-        <v>2333.999683231622</v>
+        <v>2333.999683231628</v>
       </c>
       <c r="Q40" t="n">
-        <v>2473.068840247971</v>
+        <v>2473.068840247976</v>
       </c>
       <c r="R40" t="n">
-        <v>2433.356168986313</v>
+        <v>2433.356168986317</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.847415381249</v>
+        <v>2282.847415381253</v>
       </c>
       <c r="T40" t="n">
-        <v>2097.986841584523</v>
+        <v>2097.986841584527</v>
       </c>
       <c r="U40" t="n">
-        <v>1844.420434266828</v>
+        <v>1844.420434266831</v>
       </c>
       <c r="V40" t="n">
-        <v>1625.254695504537</v>
+        <v>1625.25469550454</v>
       </c>
       <c r="W40" t="n">
-        <v>1371.356274911172</v>
+        <v>1371.356274911175</v>
       </c>
       <c r="X40" t="n">
-        <v>1178.885473456751</v>
+        <v>1178.885473456753</v>
       </c>
       <c r="Y40" t="n">
-        <v>993.6116437568166</v>
+        <v>993.6116437568185</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>83.98721997190785</v>
       </c>
       <c r="J41" t="n">
-        <v>333.0780121487878</v>
+        <v>333.0780121487876</v>
       </c>
       <c r="K41" t="n">
         <v>757.1390577412028</v>
@@ -7429,10 +7429,10 @@
         <v>3274.093290177138</v>
       </c>
       <c r="P41" t="n">
-        <v>3770.884029649725</v>
+        <v>3770.884029649726</v>
       </c>
       <c r="Q41" t="n">
-        <v>4095.780439038976</v>
+        <v>4095.780439038977</v>
       </c>
       <c r="R41" t="n">
         <v>4199.360998595393</v>
@@ -7444,7 +7444,7 @@
         <v>3968.283716097054</v>
       </c>
       <c r="U41" t="n">
-        <v>3747.575285963781</v>
+        <v>3786.139815940422</v>
       </c>
       <c r="V41" t="n">
         <v>3487.841068756401</v>
@@ -7484,7 +7484,7 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H42" t="n">
-        <v>89.66041150504779</v>
+        <v>89.66041150504778</v>
       </c>
       <c r="I42" t="n">
         <v>83.98721997190785</v>
@@ -7493,16 +7493,16 @@
         <v>213.5261423927051</v>
       </c>
       <c r="K42" t="n">
-        <v>513.0836181907688</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L42" t="n">
-        <v>962.1981532450225</v>
+        <v>939.1733591926984</v>
       </c>
       <c r="M42" t="n">
-        <v>1505.650500461512</v>
+        <v>1482.625706409188</v>
       </c>
       <c r="N42" t="n">
-        <v>2077.895059131641</v>
+        <v>2054.870265079317</v>
       </c>
       <c r="O42" t="n">
         <v>2556.142444014732</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.7641933584946</v>
+        <v>866.7641933584937</v>
       </c>
       <c r="C43" t="n">
-        <v>730.5921505901374</v>
+        <v>730.5921505901365</v>
       </c>
       <c r="D43" t="n">
-        <v>613.2396513373515</v>
+        <v>613.2396513373506</v>
       </c>
       <c r="E43" t="n">
-        <v>498.0906979145082</v>
+        <v>498.0906979145072</v>
       </c>
       <c r="F43" t="n">
-        <v>383.9648905761476</v>
+        <v>383.9648905761466</v>
       </c>
       <c r="G43" t="n">
-        <v>249.3508795166219</v>
+        <v>249.3508795166211</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7845813237503</v>
+        <v>138.7845813237494</v>
       </c>
       <c r="I43" t="n">
         <v>83.98721997190785</v>
       </c>
       <c r="J43" t="n">
-        <v>183.7204347694162</v>
+        <v>183.7204347694163</v>
       </c>
       <c r="K43" t="n">
         <v>456.7916137562426</v>
@@ -7608,13 +7608,13 @@
         <v>1655.555397629043</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.902367751633</v>
+        <v>1398.902367751632</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.676957013165</v>
+        <v>1203.676957013164</v>
       </c>
       <c r="Y43" t="n">
-        <v>1015.648518029185</v>
+        <v>1015.648518029184</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2077.359513846832</v>
+        <v>2115.924043823473</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.16113706597</v>
+        <v>1779.725667042611</v>
       </c>
       <c r="D44" t="n">
-        <v>1415.659578618769</v>
+        <v>1454.22410859541</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.635466180075</v>
+        <v>1101.199996156716</v>
       </c>
       <c r="F44" t="n">
-        <v>684.4137015500169</v>
+        <v>722.978231526658</v>
       </c>
       <c r="G44" t="n">
-        <v>302.8292219713217</v>
+        <v>341.3937519479628</v>
       </c>
       <c r="H44" t="n">
         <v>83.98721997190785</v>
@@ -7648,10 +7648,10 @@
         <v>83.98721997190785</v>
       </c>
       <c r="J44" t="n">
-        <v>333.0780121487875</v>
+        <v>333.0780121487867</v>
       </c>
       <c r="K44" t="n">
-        <v>757.1390577412026</v>
+        <v>757.1390577412018</v>
       </c>
       <c r="L44" t="n">
         <v>1320.126044699227</v>
@@ -7660,7 +7660,7 @@
         <v>1978.226981113234</v>
       </c>
       <c r="N44" t="n">
-        <v>2651.590487080599</v>
+        <v>2651.590487080598</v>
       </c>
       <c r="O44" t="n">
         <v>3274.093290177138</v>
@@ -7684,16 +7684,16 @@
         <v>3747.575285963781</v>
       </c>
       <c r="V44" t="n">
-        <v>3449.27653877976</v>
+        <v>3487.841068756401</v>
       </c>
       <c r="W44" t="n">
-        <v>3129.272023669196</v>
+        <v>3167.836553645837</v>
       </c>
       <c r="X44" t="n">
-        <v>2788.570405567666</v>
+        <v>2827.134935544307</v>
       </c>
       <c r="Y44" t="n">
-        <v>2431.195213751404</v>
+        <v>2469.759743728045</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>176.4219634029969</v>
       </c>
       <c r="H45" t="n">
-        <v>89.66041150504779</v>
+        <v>89.66041150504778</v>
       </c>
       <c r="I45" t="n">
         <v>83.98721997190785</v>
@@ -7730,16 +7730,16 @@
         <v>213.5261423927051</v>
       </c>
       <c r="K45" t="n">
-        <v>513.0836181907688</v>
+        <v>513.0836181907689</v>
       </c>
       <c r="L45" t="n">
-        <v>962.1981532450225</v>
+        <v>939.1733591926984</v>
       </c>
       <c r="M45" t="n">
-        <v>1505.650500461512</v>
+        <v>1482.625706409188</v>
       </c>
       <c r="N45" t="n">
-        <v>2077.895059131641</v>
+        <v>2054.870265079317</v>
       </c>
       <c r="O45" t="n">
         <v>2556.142444014732</v>
@@ -7809,7 +7809,7 @@
         <v>183.7204347694163</v>
       </c>
       <c r="K46" t="n">
-        <v>456.7916137562427</v>
+        <v>456.7916137562426</v>
       </c>
       <c r="L46" t="n">
         <v>852.7748007109449</v>
@@ -7818,7 +7818,7 @@
         <v>1278.927064672402</v>
       </c>
       <c r="N46" t="n">
-        <v>1701.144551482765</v>
+        <v>1701.144551482764</v>
       </c>
       <c r="O46" t="n">
         <v>2077.565823652133</v>
@@ -7845,7 +7845,7 @@
         <v>1655.555397629043</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.902367751632</v>
+        <v>1398.902367751633</v>
       </c>
       <c r="X46" t="n">
         <v>1203.676957013165</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -7987,13 +7987,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -8151,10 +8151,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>74.31475871928936</v>
       </c>
       <c r="K5" t="n">
-        <v>57.8521323086317</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L5" t="n">
-        <v>33.39854548300258</v>
+        <v>33.21421067057256</v>
       </c>
       <c r="M5" t="n">
-        <v>4.474515194684224</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L7" t="n">
-        <v>51.81392088397056</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M7" t="n">
-        <v>51.285670034278</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N7" t="n">
         <v>42.23779755379654</v>
@@ -8391,7 +8391,7 @@
         <v>59.87999055852636</v>
       </c>
       <c r="P7" t="n">
-        <v>66.5883684560963</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8455,10 +8455,10 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>58.23860263069817</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L8" t="n">
-        <v>26.78994699523963</v>
+        <v>33.38817270698293</v>
       </c>
       <c r="M8" t="n">
         <v>4.69569289246121</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.977105843813376</v>
+        <v>13.85315158552481</v>
       </c>
       <c r="P8" t="n">
         <v>40.80429423377234</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.17771137138155</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8616,10 +8616,10 @@
         <v>59.99978994537916</v>
       </c>
       <c r="L10" t="n">
-        <v>53.16942317027382</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
-        <v>52.68764873420156</v>
+        <v>52.40982870423341</v>
       </c>
       <c r="N10" t="n">
         <v>43.66145635451461</v>
@@ -8628,7 +8628,7 @@
         <v>61.37159796783205</v>
       </c>
       <c r="P10" t="n">
-        <v>65.88487562446231</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>27.22636293687805</v>
       </c>
       <c r="R26" t="n">
-        <v>27.22636293687754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>9.161551318735974</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>9.161551318735818</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.260451302330138e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.01702407393689</v>
+        <v>14.01702407393691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.17888467687519</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>38.17888467687544</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.17888467687368</v>
+        <v>38.17888467687453</v>
       </c>
     </row>
     <row r="15">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.49432636243964</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>11.49432636244032</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>29.19964822938292</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>29.19964822938186</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>38.1788846768745</v>
       </c>
       <c r="V41" t="n">
-        <v>38.17888467687447</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.094235813070554e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>38.17888467687467</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>38.17888467687447</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626920.815213274</v>
+        <v>626920.8152132741</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629705.8535140223</v>
+        <v>629705.8535140224</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627857.9683459236</v>
+        <v>627857.9683459237</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629200.0946284834</v>
+        <v>629200.0946284835</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626920.8152132741</v>
+        <v>626920.815213274</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>819378.6815069579</v>
       </c>
       <c r="C2" t="n">
-        <v>820107.0328032119</v>
+        <v>820107.0328032116</v>
       </c>
       <c r="D2" t="n">
-        <v>820476.4154416664</v>
+        <v>820476.4154416667</v>
       </c>
       <c r="E2" t="n">
-        <v>818002.7306440042</v>
+        <v>818002.7306440043</v>
       </c>
       <c r="F2" t="n">
-        <v>818002.7306440047</v>
+        <v>818002.7306440045</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642819</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.7698642842</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642816</v>
       </c>
       <c r="J2" t="n">
-        <v>820126.8214858335</v>
+        <v>820126.8214858336</v>
       </c>
       <c r="K2" t="n">
-        <v>818717.4778652249</v>
+        <v>818717.4778652251</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.769864282</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642822</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642816</v>
       </c>
       <c r="O2" t="n">
+        <v>818002.7306440055</v>
+      </c>
+      <c r="P2" t="n">
         <v>818002.7306440045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>818002.7306440052</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
-        <v>7265.564188974511</v>
+        <v>7265.56418897446</v>
       </c>
       <c r="D3" t="n">
         <v>3481.15142018334</v>
@@ -26377,34 +26377,34 @@
         <v>1091447.080192541</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.416656232322566e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>2181.650552964311</v>
+        <v>2181.650552964385</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.195763499912573e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25566.62456544348</v>
+        <v>25566.62456544365</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4363.301105928599</v>
+        <v>4363.301105928417</v>
       </c>
       <c r="M3" t="n">
-        <v>259910.8514704742</v>
+        <v>259910.851470474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21585.89790043485</v>
+        <v>21585.89790043496</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>357838.5864644769</v>
       </c>
       <c r="C4" t="n">
-        <v>355974.889295201</v>
+        <v>355974.8892952011</v>
       </c>
       <c r="D4" t="n">
-        <v>355060.6128496822</v>
+        <v>355060.6128496821</v>
       </c>
       <c r="E4" t="n">
-        <v>46091.75035816939</v>
+        <v>46091.75035816943</v>
       </c>
       <c r="F4" t="n">
         <v>46091.75035816945</v>
       </c>
       <c r="G4" t="n">
-        <v>47812.59541544261</v>
+        <v>47812.59541544253</v>
       </c>
       <c r="H4" t="n">
-        <v>47812.59541544261</v>
+        <v>47812.59541544254</v>
       </c>
       <c r="I4" t="n">
-        <v>47812.59541544261</v>
+        <v>47812.59541544253</v>
       </c>
       <c r="J4" t="n">
-        <v>47286.97135528066</v>
+        <v>47286.97135528062</v>
       </c>
       <c r="K4" t="n">
-        <v>46493.93696413112</v>
+        <v>46493.93696413111</v>
       </c>
       <c r="L4" t="n">
-        <v>47812.59541544256</v>
+        <v>47812.59541544249</v>
       </c>
       <c r="M4" t="n">
-        <v>47812.59541544263</v>
+        <v>47812.5954154425</v>
       </c>
       <c r="N4" t="n">
-        <v>47812.59541544256</v>
+        <v>47812.59541544253</v>
       </c>
       <c r="O4" t="n">
-        <v>46091.75035816943</v>
+        <v>46091.75035816935</v>
       </c>
       <c r="P4" t="n">
         <v>46091.75035816943</v>
@@ -26478,34 +26478,34 @@
         <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
-        <v>94200.22314421881</v>
+        <v>94200.22314421876</v>
       </c>
       <c r="F5" t="n">
-        <v>94200.22314421879</v>
+        <v>94200.22314421878</v>
       </c>
       <c r="G5" t="n">
-        <v>94429.48461964024</v>
+        <v>94429.48461964022</v>
       </c>
       <c r="H5" t="n">
         <v>94429.48461964024</v>
       </c>
       <c r="I5" t="n">
-        <v>94429.48461964022</v>
+        <v>94429.48461964024</v>
       </c>
       <c r="J5" t="n">
-        <v>94618.28672531483</v>
+        <v>94618.28672531487</v>
       </c>
       <c r="K5" t="n">
-        <v>94340.89969957015</v>
+        <v>94340.89969957017</v>
       </c>
       <c r="L5" t="n">
-        <v>94429.48461964022</v>
+        <v>94429.48461964025</v>
       </c>
       <c r="M5" t="n">
-        <v>94429.48461964022</v>
+        <v>94429.48461964025</v>
       </c>
       <c r="N5" t="n">
-        <v>94429.48461964021</v>
+        <v>94429.48461964024</v>
       </c>
       <c r="O5" t="n">
         <v>94200.22314421879</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112714.9314497361</v>
+        <v>112752.350937776</v>
       </c>
       <c r="C6" t="n">
-        <v>415827.4686494138</v>
+        <v>415848.5002332876</v>
       </c>
       <c r="D6" t="n">
-        <v>420693.7809566016</v>
+        <v>420706.5014311109</v>
       </c>
       <c r="E6" t="n">
-        <v>-413812.299031432</v>
+        <v>-413743.9206489752</v>
       </c>
       <c r="F6" t="n">
-        <v>677634.7811611096</v>
+        <v>677703.1595435655</v>
       </c>
       <c r="G6" t="n">
-        <v>676618.0392762364</v>
+        <v>676618.0392762348</v>
       </c>
       <c r="H6" t="n">
-        <v>678799.6898292016</v>
+        <v>678799.6898292012</v>
       </c>
       <c r="I6" t="n">
-        <v>678799.6898292014</v>
+        <v>678799.6898291989</v>
       </c>
       <c r="J6" t="n">
-        <v>652632.0651303333</v>
+        <v>652652.6514688483</v>
       </c>
       <c r="K6" t="n">
-        <v>677824.5339015472</v>
+        <v>677876.8304715261</v>
       </c>
       <c r="L6" t="n">
-        <v>674436.3887232728</v>
+        <v>674436.3887232709</v>
       </c>
       <c r="M6" t="n">
-        <v>418888.8383587271</v>
+        <v>418888.8383587254</v>
       </c>
       <c r="N6" t="n">
-        <v>678799.689829201</v>
+        <v>678799.6898291989</v>
       </c>
       <c r="O6" t="n">
-        <v>656048.8832606745</v>
+        <v>656117.2616431317</v>
       </c>
       <c r="P6" t="n">
-        <v>677634.78116111</v>
+        <v>677703.1595435656</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="F2" t="n">
         <v>32.4364987579543</v>
       </c>
       <c r="G2" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H2" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="I2" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="J2" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="K2" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="L2" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="M2" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="N2" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="O2" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="P2" t="n">
         <v>32.43649875795429</v>
@@ -26813,10 +26813,10 @@
         <v>1049.840249648848</v>
       </c>
       <c r="J4" t="n">
-        <v>1056.716295390559</v>
+        <v>1056.71629539056</v>
       </c>
       <c r="K4" t="n">
-        <v>1052.154008782916</v>
+        <v>1052.154008782917</v>
       </c>
       <c r="L4" t="n">
         <v>1049.840249648848</v>
@@ -26825,7 +26825,7 @@
         <v>1049.840249648848</v>
       </c>
       <c r="N4" t="n">
-        <v>1049.840249648847</v>
+        <v>1049.840249648848</v>
       </c>
       <c r="O4" t="n">
         <v>1049.840249648848</v>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795427</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.727063191205389</v>
+        <v>2.727063191205261</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.70943556674887</v>
+        <v>29.70943556674902</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.454126382410749</v>
+        <v>5.454126382410522</v>
       </c>
       <c r="M2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.98237237554336</v>
+        <v>26.9823723755437</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,22 +26962,22 @@
         <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
-        <v>6.360213490542208</v>
+        <v>6.360213490542151</v>
       </c>
       <c r="D3" t="n">
         <v>3.225575971863634</v>
       </c>
       <c r="E3" t="n">
-        <v>938.6219806398437</v>
+        <v>938.6219806398433</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>2.313759134068562</v>
       </c>
       <c r="E4" t="n">
-        <v>1042.964203907137</v>
+        <v>1042.964203907136</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.87604574171155</v>
+        <v>6.876045741711778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1042.964203907137</v>
+        <v>1042.964203907136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795427</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.727063191205389</v>
+        <v>2.727063191205261</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.70943556674887</v>
+        <v>29.70943556674902</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>2.313759134068562</v>
       </c>
       <c r="M4" t="n">
-        <v>1042.964203907137</v>
+        <v>1042.964203907136</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S2" t="n">
         <v>179.7218745449422</v>
@@ -27560,7 +27560,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>326.0456339133427</v>
+        <v>321.4833473056998</v>
       </c>
       <c r="I5" t="n">
-        <v>159.9226849201952</v>
+        <v>155.9042228761834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U5" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V5" t="n">
-        <v>323.733796426123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27706,10 +27706,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>141.050750349372</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H6" t="n">
         <v>100.8971999567888</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S6" t="n">
-        <v>158.6512997408977</v>
+        <v>154.6328376968858</v>
       </c>
       <c r="T6" t="n">
         <v>197.336797223147</v>
@@ -27794,7 +27794,7 @@
         <v>156.9975751224423</v>
       </c>
       <c r="I7" t="n">
-        <v>133.7433542436032</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J7" t="n">
         <v>51.77372115642321</v>
@@ -27824,7 +27824,7 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S7" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T7" t="n">
         <v>225.4323882309924</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>221.6911933450253</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0223667444519</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>325.9128341950639</v>
+        <v>319.8564131057644</v>
       </c>
       <c r="I8" t="n">
-        <v>159.4227692713298</v>
+        <v>152.5467235296183</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>59.80869847563716</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S8" t="n">
-        <v>172.7873180692124</v>
+        <v>178.8437391585118</v>
       </c>
       <c r="T8" t="n">
         <v>217.2989483486666</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.578560245468</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H9" t="n">
-        <v>98.51643404639911</v>
+        <v>105.3924797881105</v>
       </c>
       <c r="I9" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6262746880049</v>
       </c>
     </row>
     <row r="10">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="C11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="D11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="E11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="F11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="G11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="H11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="I11" t="n">
-        <v>13.9505123522641</v>
+        <v>13.95051235226416</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="T11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="U11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="V11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="W11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="X11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="C13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="D13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="E13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="F13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="G13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="H13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="I13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="K13" t="n">
-        <v>32.436498757956</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="L13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="M13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="N13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="O13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="P13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="R13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="S13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="T13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="U13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="V13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="W13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="X13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.43649875795422</v>
+        <v>32.43649875795429</v>
       </c>
     </row>
     <row r="14">
@@ -28347,7 +28347,7 @@
         <v>32.4364987579543</v>
       </c>
       <c r="I14" t="n">
-        <v>13.95051235226413</v>
+        <v>13.95051235226416</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I17" t="n">
         <v>13.95051235226413</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="J19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="K19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="L19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="M19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="O19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="P19" t="n">
-        <v>35.16356194915969</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.99168044470251</v>
+        <v>3.991680444705736</v>
       </c>
       <c r="R19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="S19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="C20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="D20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="E20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="F20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="G20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="H20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="I20" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="T20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="U20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="V20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="W20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="X20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="C22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="D22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="E22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="F22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="G22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="H22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="I22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="J22" t="n">
-        <v>3.991680444702666</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="K22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="L22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="N22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="O22" t="n">
-        <v>35.16356194915969</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.16356194915969</v>
+        <v>3.991680444703377</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="R22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="S22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="T22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="U22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="V22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="W22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="X22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915962</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I23" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="K25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="L25" t="n">
-        <v>35.16356194915969</v>
+        <v>3.991680444705764</v>
       </c>
       <c r="M25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="N25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="O25" t="n">
-        <v>3.991680444702808</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="P25" t="n">
-        <v>35.16356194915969</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="R25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="S25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.16356194915969</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="C26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="D26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="E26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="F26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="G26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="H26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="I26" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="T26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="U26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="V26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="W26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="X26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="C28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="D28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="E28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="F28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="G28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="H28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="I28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="J28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="K28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="L28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="M28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="N28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="O28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="P28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="R28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="S28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="T28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="U28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="V28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="W28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="X28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.43649875795435</v>
+        <v>32.43649875795429</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="C29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="D29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="E29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="F29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="G29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="H29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="I29" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="T29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="U29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="V29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="W29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="X29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="C31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="D31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="E31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="F31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="G31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="H31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="I31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="J31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="K31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="L31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="M31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="N31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="O31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="P31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="R31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="S31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="T31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="U31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="V31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="W31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="X31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.43649875795426</v>
+        <v>32.43649875795424</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="C32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="D32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="E32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="F32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="G32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="H32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="I32" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="T32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="U32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="V32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="W32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="X32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="C34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="D34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="E34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="F34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="G34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="H34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="I34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="J34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="K34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="L34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="M34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="N34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="O34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3.991680444707072</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.991680444703888</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="S34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="T34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="U34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="V34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="W34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="X34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.16356194915962</v>
+        <v>35.1635619491595</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="C35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="D35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="E35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="F35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="G35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="H35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="I35" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="T35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="U35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="V35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="W35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="X35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="C37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="D37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="E37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="F37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="G37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="H37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="I37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="J37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="K37" t="n">
-        <v>3.991680444700847</v>
+        <v>3.991680444706873</v>
       </c>
       <c r="L37" t="n">
-        <v>35.16356194915975</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="O37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="P37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="R37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="S37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="T37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="U37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="V37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="W37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="X37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.16356194915975</v>
+        <v>35.16356194915952</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I38" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="C40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="D40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="E40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="F40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="G40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="H40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="I40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="J40" t="n">
-        <v>35.16356194915981</v>
+        <v>3.991680444705622</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.991680444699114</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="M40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="N40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="O40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="P40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="R40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="S40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="T40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="U40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="V40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="W40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="X40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.16356194915981</v>
+        <v>35.16356194915956</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="C41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="D41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="E41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="F41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="G41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="H41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="I41" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="T41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="U41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="V41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="W41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="X41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="C43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="D43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="E43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="F43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="G43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="H43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="I43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="J43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="K43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="L43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="M43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="N43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="O43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="P43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="R43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="S43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="T43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="U43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="V43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="W43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="X43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.43649875795429</v>
+        <v>32.43649875795425</v>
       </c>
     </row>
     <row r="44">
@@ -30717,7 +30717,7 @@
         <v>32.43649875795429</v>
       </c>
       <c r="I44" t="n">
-        <v>13.95051235226413</v>
+        <v>13.9505123522641</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31050,7 +31050,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31074,13 +31074,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31129,7 +31129,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31159,7 +31159,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31202,13 +31202,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31223,10 +31223,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31372,10 +31372,10 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L6" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M6" t="n">
-        <v>146.6963205296612</v>
+        <v>146.5119857172312</v>
       </c>
       <c r="N6" t="n">
         <v>135.9039986909762</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.097603974272528</v>
+        <v>5.097603974272526</v>
       </c>
       <c r="H11" t="n">
-        <v>52.20583670151854</v>
+        <v>52.20583670151852</v>
       </c>
       <c r="I11" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J11" t="n">
-        <v>432.6527653114134</v>
+        <v>432.6527653114132</v>
       </c>
       <c r="K11" t="n">
-        <v>648.4343415423696</v>
+        <v>648.4343415423693</v>
       </c>
       <c r="L11" t="n">
-        <v>804.4401391700126</v>
+        <v>804.4401391700123</v>
       </c>
       <c r="M11" t="n">
-        <v>895.0946538474816</v>
+        <v>895.0946538474813</v>
       </c>
       <c r="N11" t="n">
-        <v>909.5782211393836</v>
+        <v>909.5782211393832</v>
       </c>
       <c r="O11" t="n">
-        <v>858.888921620211</v>
+        <v>858.8889216202107</v>
       </c>
       <c r="P11" t="n">
-        <v>733.0418235053579</v>
+        <v>733.0418235053576</v>
       </c>
       <c r="Q11" t="n">
-        <v>550.4838811767228</v>
+        <v>550.4838811767227</v>
       </c>
       <c r="R11" t="n">
-        <v>320.2123656488969</v>
+        <v>320.2123656488968</v>
       </c>
       <c r="S11" t="n">
         <v>116.1616505637353</v>
       </c>
       <c r="T11" t="n">
-        <v>22.314761397378</v>
+        <v>22.31476139737799</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4078083179418021</v>
+        <v>0.407808317941802</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.727458579253459</v>
+        <v>2.727458579253458</v>
       </c>
       <c r="H12" t="n">
-        <v>26.34150785752683</v>
+        <v>26.34150785752682</v>
       </c>
       <c r="I12" t="n">
-        <v>93.90592038219147</v>
+        <v>93.90592038219144</v>
       </c>
       <c r="J12" t="n">
-        <v>257.6850230513104</v>
+        <v>257.6850230513103</v>
       </c>
       <c r="K12" t="n">
-        <v>440.4247478612921</v>
+        <v>440.424747861292</v>
       </c>
       <c r="L12" t="n">
-        <v>592.2054252892215</v>
+        <v>592.2054252892212</v>
       </c>
       <c r="M12" t="n">
-        <v>667.8184310575386</v>
+        <v>667.8184310575393</v>
       </c>
       <c r="N12" t="n">
-        <v>709.3665188208371</v>
+        <v>709.3665188208369</v>
       </c>
       <c r="O12" t="n">
-        <v>648.931778722642</v>
+        <v>648.9317787226418</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>50.66134685587014</v>
+        <v>50.66134685587011</v>
       </c>
       <c r="T12" t="n">
         <v>10.99357208041196</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.286609651574297</v>
+        <v>2.286609651574296</v>
       </c>
       <c r="H13" t="n">
         <v>20.3300385385424</v>
       </c>
       <c r="I13" t="n">
-        <v>68.7645884309798</v>
+        <v>68.76458843097977</v>
       </c>
       <c r="J13" t="n">
         <v>161.6633023663028</v>
@@ -31925,31 +31925,31 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L13" t="n">
-        <v>339.9564931076915</v>
+        <v>339.9564931076914</v>
       </c>
       <c r="M13" t="n">
-        <v>358.4364565645055</v>
+        <v>358.4364565645054</v>
       </c>
       <c r="N13" t="n">
-        <v>349.9136387722743</v>
+        <v>349.9136387722742</v>
       </c>
       <c r="O13" t="n">
-        <v>323.2018805697926</v>
+        <v>323.2018805697925</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5550436776767</v>
+        <v>276.5550436776766</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.4723772786441</v>
+        <v>191.472377278644</v>
       </c>
       <c r="R13" t="n">
         <v>102.8142848789679</v>
       </c>
       <c r="S13" t="n">
-        <v>39.84937001879933</v>
+        <v>39.84937001879931</v>
       </c>
       <c r="T13" t="n">
-        <v>9.770059420362903</v>
+        <v>9.7700594203629</v>
       </c>
       <c r="U13" t="n">
         <v>0.1247241628131436</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272526</v>
       </c>
       <c r="H14" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151852</v>
       </c>
       <c r="I14" t="n">
         <v>196.5253772181418</v>
@@ -32001,37 +32001,37 @@
         <v>432.6527653114132</v>
       </c>
       <c r="K14" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423693</v>
       </c>
       <c r="L14" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700123</v>
       </c>
       <c r="M14" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474813</v>
       </c>
       <c r="N14" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393832</v>
       </c>
       <c r="O14" t="n">
-        <v>858.8889216202109</v>
+        <v>858.8889216202107</v>
       </c>
       <c r="P14" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053576</v>
       </c>
       <c r="Q14" t="n">
         <v>550.4838811767227</v>
       </c>
       <c r="R14" t="n">
-        <v>320.2123656488969</v>
+        <v>320.2123656488968</v>
       </c>
       <c r="S14" t="n">
         <v>116.1616505637353</v>
       </c>
       <c r="T14" t="n">
-        <v>22.314761397378</v>
+        <v>22.31476139737799</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4078083179418021</v>
+        <v>0.407808317941802</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>26.34150785752682</v>
       </c>
       <c r="I15" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219144</v>
       </c>
       <c r="J15" t="n">
         <v>257.6850230513103</v>
@@ -32083,16 +32083,16 @@
         <v>440.424747861292</v>
       </c>
       <c r="L15" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892212</v>
       </c>
       <c r="M15" t="n">
-        <v>667.8184310575389</v>
+        <v>667.8184310575393</v>
       </c>
       <c r="N15" t="n">
-        <v>709.366518820837</v>
+        <v>709.3665188208369</v>
       </c>
       <c r="O15" t="n">
-        <v>648.9317787226419</v>
+        <v>648.9317787226418</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587011</v>
       </c>
       <c r="T15" t="n">
         <v>10.99357208041196</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.286609651574297</v>
+        <v>2.286609651574296</v>
       </c>
       <c r="H16" t="n">
         <v>20.3300385385424</v>
       </c>
       <c r="I16" t="n">
-        <v>68.76458843097979</v>
+        <v>68.76458843097977</v>
       </c>
       <c r="J16" t="n">
         <v>161.6633023663028</v>
@@ -32174,19 +32174,19 @@
         <v>323.2018805697925</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5550436776767</v>
+        <v>276.5550436776766</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.4723772786441</v>
+        <v>191.472377278644</v>
       </c>
       <c r="R16" t="n">
         <v>102.8142848789679</v>
       </c>
       <c r="S16" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879931</v>
       </c>
       <c r="T16" t="n">
-        <v>9.770059420362902</v>
+        <v>9.7700594203629</v>
       </c>
       <c r="U16" t="n">
         <v>0.1247241628131436</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I20" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J20" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K20" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L20" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M20" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N20" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O20" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P20" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q20" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R20" t="n">
         <v>320.2123656488969</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H21" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I21" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J21" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K21" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L21" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M21" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N21" t="n">
-        <v>686.1091510912169</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O21" t="n">
-        <v>648.9317787226419</v>
+        <v>625.6744109930216</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T21" t="n">
         <v>10.99357208041196</v>
@@ -32627,7 +32627,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I22" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J22" t="n">
         <v>161.6633023663028</v>
@@ -32636,16 +32636,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L22" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M22" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N22" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O22" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P22" t="n">
         <v>276.5550436776767</v>
@@ -32657,10 +32657,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S22" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T22" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U22" t="n">
         <v>0.1247241628131436</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H23" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I23" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J23" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K23" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L23" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M23" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N23" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O23" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P23" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q23" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R23" t="n">
         <v>320.2123656488969</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H24" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I24" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J24" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K24" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L24" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M24" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N24" t="n">
-        <v>709.366518820837</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O24" t="n">
         <v>625.6744109930216</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T24" t="n">
         <v>10.99357208041196</v>
@@ -32864,7 +32864,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I25" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J25" t="n">
         <v>161.6633023663028</v>
@@ -32873,16 +32873,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L25" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M25" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N25" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O25" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P25" t="n">
         <v>276.5550436776767</v>
@@ -32894,10 +32894,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S25" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T25" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U25" t="n">
         <v>0.1247241628131436</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H26" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I26" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J26" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K26" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L26" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M26" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N26" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O26" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P26" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q26" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R26" t="n">
         <v>320.2123656488969</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H27" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I27" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J27" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K27" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L27" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M27" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N27" t="n">
-        <v>686.1091510912169</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O27" t="n">
-        <v>648.9317787226419</v>
+        <v>625.6744109930212</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T27" t="n">
         <v>10.99357208041196</v>
@@ -33101,7 +33101,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I28" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J28" t="n">
         <v>161.6633023663028</v>
@@ -33110,16 +33110,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L28" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M28" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N28" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O28" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P28" t="n">
         <v>276.5550436776767</v>
@@ -33131,10 +33131,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S28" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T28" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U28" t="n">
         <v>0.1247241628131436</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H29" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I29" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J29" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K29" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L29" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M29" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N29" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O29" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P29" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q29" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R29" t="n">
         <v>320.2123656488969</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H30" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I30" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J30" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K30" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L30" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M30" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N30" t="n">
-        <v>686.1091510912169</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O30" t="n">
-        <v>648.9317787226419</v>
+        <v>625.6744109930212</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T30" t="n">
         <v>10.99357208041196</v>
@@ -33338,7 +33338,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I31" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J31" t="n">
         <v>161.6633023663028</v>
@@ -33347,16 +33347,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L31" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M31" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N31" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O31" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P31" t="n">
         <v>276.5550436776767</v>
@@ -33368,10 +33368,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S31" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T31" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U31" t="n">
         <v>0.1247241628131436</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H32" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I32" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J32" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K32" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L32" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M32" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N32" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O32" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P32" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q32" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R32" t="n">
         <v>320.2123656488969</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H33" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I33" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J33" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K33" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L33" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M33" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N33" t="n">
-        <v>686.1091510912169</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O33" t="n">
-        <v>648.9317787226419</v>
+        <v>625.6744109930216</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T33" t="n">
         <v>10.99357208041196</v>
@@ -33575,7 +33575,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I34" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J34" t="n">
         <v>161.6633023663028</v>
@@ -33584,16 +33584,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L34" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M34" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N34" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O34" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P34" t="n">
         <v>276.5550436776767</v>
@@ -33605,10 +33605,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S34" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T34" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U34" t="n">
         <v>0.1247241628131436</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H35" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I35" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J35" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K35" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L35" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M35" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N35" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O35" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P35" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q35" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R35" t="n">
         <v>320.2123656488969</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H36" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I36" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J36" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K36" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L36" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M36" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N36" t="n">
-        <v>686.1091510912169</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O36" t="n">
-        <v>648.9317787226419</v>
+        <v>625.6744109930216</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T36" t="n">
         <v>10.99357208041196</v>
@@ -33812,7 +33812,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I37" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J37" t="n">
         <v>161.6633023663028</v>
@@ -33821,16 +33821,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L37" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M37" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N37" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O37" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P37" t="n">
         <v>276.5550436776767</v>
@@ -33842,10 +33842,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S37" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T37" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U37" t="n">
         <v>0.1247241628131436</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H38" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I38" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J38" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K38" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L38" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M38" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N38" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O38" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P38" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q38" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R38" t="n">
         <v>320.2123656488969</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H39" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I39" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J39" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K39" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L39" t="n">
-        <v>592.2054252892214</v>
+        <v>592.2054252892215</v>
       </c>
       <c r="M39" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N39" t="n">
-        <v>709.366518820837</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O39" t="n">
         <v>625.6744109930216</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T39" t="n">
         <v>10.99357208041196</v>
@@ -34049,7 +34049,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I40" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J40" t="n">
         <v>161.6633023663028</v>
@@ -34058,16 +34058,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L40" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M40" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N40" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O40" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P40" t="n">
         <v>276.5550436776767</v>
@@ -34079,10 +34079,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S40" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T40" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U40" t="n">
         <v>0.1247241628131436</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H41" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I41" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J41" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114134</v>
       </c>
       <c r="K41" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L41" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M41" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N41" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O41" t="n">
-        <v>858.8889216202109</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P41" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q41" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R41" t="n">
         <v>320.2123656488969</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H42" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I42" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J42" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K42" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L42" t="n">
-        <v>592.2054252892214</v>
+        <v>568.948057559601</v>
       </c>
       <c r="M42" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N42" t="n">
-        <v>709.366518820837</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O42" t="n">
-        <v>625.6744109930216</v>
+        <v>648.931778722642</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T42" t="n">
         <v>10.99357208041196</v>
@@ -34286,7 +34286,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I43" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J43" t="n">
         <v>161.6633023663028</v>
@@ -34295,16 +34295,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L43" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M43" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N43" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O43" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P43" t="n">
         <v>276.5550436776767</v>
@@ -34316,10 +34316,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S43" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T43" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U43" t="n">
         <v>0.1247241628131436</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.097603974272527</v>
+        <v>5.097603974272528</v>
       </c>
       <c r="H44" t="n">
-        <v>52.20583670151853</v>
+        <v>52.20583670151854</v>
       </c>
       <c r="I44" t="n">
         <v>196.5253772181418</v>
       </c>
       <c r="J44" t="n">
-        <v>432.6527653114132</v>
+        <v>432.6527653114124</v>
       </c>
       <c r="K44" t="n">
-        <v>648.4343415423695</v>
+        <v>648.4343415423696</v>
       </c>
       <c r="L44" t="n">
-        <v>804.4401391700125</v>
+        <v>804.4401391700126</v>
       </c>
       <c r="M44" t="n">
-        <v>895.0946538474815</v>
+        <v>895.0946538474816</v>
       </c>
       <c r="N44" t="n">
-        <v>909.5782211393833</v>
+        <v>909.5782211393836</v>
       </c>
       <c r="O44" t="n">
-        <v>858.8889216202107</v>
+        <v>858.888921620211</v>
       </c>
       <c r="P44" t="n">
-        <v>733.0418235053578</v>
+        <v>733.0418235053579</v>
       </c>
       <c r="Q44" t="n">
-        <v>550.4838811767227</v>
+        <v>550.4838811767228</v>
       </c>
       <c r="R44" t="n">
         <v>320.2123656488969</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.727458579253458</v>
+        <v>2.727458579253459</v>
       </c>
       <c r="H45" t="n">
-        <v>26.34150785752682</v>
+        <v>26.34150785752683</v>
       </c>
       <c r="I45" t="n">
-        <v>93.90592038219145</v>
+        <v>93.90592038219147</v>
       </c>
       <c r="J45" t="n">
-        <v>257.6850230513103</v>
+        <v>257.6850230513104</v>
       </c>
       <c r="K45" t="n">
-        <v>440.424747861292</v>
+        <v>440.4247478612921</v>
       </c>
       <c r="L45" t="n">
-        <v>592.2054252892214</v>
+        <v>568.948057559601</v>
       </c>
       <c r="M45" t="n">
-        <v>691.0757987871591</v>
+        <v>691.0757987871592</v>
       </c>
       <c r="N45" t="n">
-        <v>709.366518820837</v>
+        <v>709.3665188208371</v>
       </c>
       <c r="O45" t="n">
-        <v>625.6744109930216</v>
+        <v>648.931778722642</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>50.66134685587012</v>
+        <v>50.66134685587014</v>
       </c>
       <c r="T45" t="n">
         <v>10.99357208041196</v>
@@ -34523,7 +34523,7 @@
         <v>20.3300385385424</v>
       </c>
       <c r="I46" t="n">
-        <v>68.76458843097979</v>
+        <v>68.7645884309798</v>
       </c>
       <c r="J46" t="n">
         <v>161.6633023663028</v>
@@ -34532,16 +34532,16 @@
         <v>265.6624667919955</v>
       </c>
       <c r="L46" t="n">
-        <v>339.9564931076914</v>
+        <v>339.9564931076915</v>
       </c>
       <c r="M46" t="n">
-        <v>358.4364565645054</v>
+        <v>358.4364565645055</v>
       </c>
       <c r="N46" t="n">
-        <v>349.9136387722742</v>
+        <v>349.9136387722743</v>
       </c>
       <c r="O46" t="n">
-        <v>323.2018805697925</v>
+        <v>323.2018805697926</v>
       </c>
       <c r="P46" t="n">
         <v>276.5550436776767</v>
@@ -34553,10 +34553,10 @@
         <v>102.8142848789679</v>
       </c>
       <c r="S46" t="n">
-        <v>39.84937001879932</v>
+        <v>39.84937001879933</v>
       </c>
       <c r="T46" t="n">
-        <v>9.770059420362902</v>
+        <v>9.770059420362903</v>
       </c>
       <c r="U46" t="n">
         <v>0.1247241628131436</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="M5" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4.377951795212859</v>
       </c>
       <c r="N5" t="n">
         <v>4.562286607642875</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="M6" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="N6" t="n">
         <v>4.562286607642875</v>
@@ -35099,10 +35099,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="N7" t="n">
         <v>4.562286607642875</v>
@@ -35111,7 +35111,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
@@ -35187,13 +35187,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35336,10 +35336,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35348,7 +35348,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>251.6068607847271</v>
+        <v>251.6068607847269</v>
       </c>
       <c r="K11" t="n">
-        <v>428.344490497389</v>
+        <v>428.3444904973888</v>
       </c>
       <c r="L11" t="n">
-        <v>568.6737242000254</v>
+        <v>568.6737242000252</v>
       </c>
       <c r="M11" t="n">
-        <v>664.7484206202089</v>
+        <v>664.7484206202085</v>
       </c>
       <c r="N11" t="n">
-        <v>680.1651575427927</v>
+        <v>680.1651575427923</v>
       </c>
       <c r="O11" t="n">
-        <v>628.7907101985243</v>
+        <v>628.7907101985239</v>
       </c>
       <c r="P11" t="n">
-        <v>501.8088277500884</v>
+        <v>501.808827750088</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.1781913022733</v>
+        <v>328.1781913022731</v>
       </c>
       <c r="R11" t="n">
-        <v>104.6268278347648</v>
+        <v>104.6268278347647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.8473963846437</v>
+        <v>130.8473963846436</v>
       </c>
       <c r="K12" t="n">
-        <v>302.5833088869331</v>
+        <v>302.583308886933</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6510455093473</v>
+        <v>453.6510455093471</v>
       </c>
       <c r="M12" t="n">
-        <v>525.6843971355204</v>
+        <v>525.6843971355211</v>
       </c>
       <c r="N12" t="n">
-        <v>578.0248067375038</v>
+        <v>578.0248067375036</v>
       </c>
       <c r="O12" t="n">
-        <v>506.3355342781975</v>
+        <v>506.3355342781973</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>100.7406210075843</v>
       </c>
       <c r="K13" t="n">
-        <v>275.8294737240687</v>
+        <v>275.8294737240669</v>
       </c>
       <c r="L13" t="n">
-        <v>399.9830171259619</v>
+        <v>399.9830171259617</v>
       </c>
       <c r="M13" t="n">
-        <v>430.4568322843003</v>
+        <v>430.4568322843002</v>
       </c>
       <c r="N13" t="n">
         <v>426.4823099094571</v>
       </c>
       <c r="O13" t="n">
-        <v>380.2235072417865</v>
+        <v>380.2235072417864</v>
       </c>
       <c r="P13" t="n">
         <v>306.2701017005244</v>
       </c>
       <c r="Q13" t="n">
-        <v>137.746832784904</v>
+        <v>137.7468327849039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>251.6068607847274</v>
+        <v>251.6068607847269</v>
       </c>
       <c r="K14" t="n">
-        <v>428.3444904973889</v>
+        <v>428.3444904973888</v>
       </c>
       <c r="L14" t="n">
         <v>568.6737242000252</v>
       </c>
       <c r="M14" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202085</v>
       </c>
       <c r="N14" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427923</v>
       </c>
       <c r="O14" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985239</v>
       </c>
       <c r="P14" t="n">
-        <v>501.8088277500883</v>
+        <v>501.808827750088</v>
       </c>
       <c r="Q14" t="n">
         <v>328.1781913022731</v>
       </c>
       <c r="R14" t="n">
-        <v>104.6268278347648</v>
+        <v>104.6268278347647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>302.583308886933</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093471</v>
       </c>
       <c r="M15" t="n">
-        <v>525.6843971355206</v>
+        <v>525.6843971355211</v>
       </c>
       <c r="N15" t="n">
-        <v>578.0248067375037</v>
+        <v>578.0248067375036</v>
       </c>
       <c r="O15" t="n">
-        <v>506.3355342781974</v>
+        <v>506.3355342781973</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>100.7406210075843</v>
       </c>
       <c r="K16" t="n">
-        <v>275.829473724067</v>
+        <v>275.8294737240669</v>
       </c>
       <c r="L16" t="n">
-        <v>399.9830171259619</v>
+        <v>399.9830171259618</v>
       </c>
       <c r="M16" t="n">
         <v>430.4568322843003</v>
@@ -35822,7 +35822,7 @@
         <v>380.2235072417865</v>
       </c>
       <c r="P16" t="n">
-        <v>306.2701017005245</v>
+        <v>306.2701017005244</v>
       </c>
       <c r="Q16" t="n">
         <v>137.746832784904</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>103.4676841987897</v>
+        <v>103.4676841987896</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5565369152724</v>
+        <v>278.5565369152723</v>
       </c>
       <c r="L19" t="n">
-        <v>402.7100803171672</v>
+        <v>402.7100803171671</v>
       </c>
       <c r="M19" t="n">
-        <v>433.1838954755057</v>
+        <v>433.1838954755056</v>
       </c>
       <c r="N19" t="n">
-        <v>394.0458111515028</v>
+        <v>429.2093731006624</v>
       </c>
       <c r="O19" t="n">
-        <v>382.9505704329919</v>
+        <v>382.9505704329918</v>
       </c>
       <c r="P19" t="n">
-        <v>308.9971648917299</v>
+        <v>273.8336029425702</v>
       </c>
       <c r="Q19" t="n">
-        <v>109.3020144716522</v>
+        <v>109.3020144716554</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K20" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L20" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M20" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N20" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O20" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P20" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q20" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R20" t="n">
         <v>104.6268278347648</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K21" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M21" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N21" t="n">
-        <v>554.7674390078836</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O21" t="n">
-        <v>506.3355342781974</v>
+        <v>483.0781665485772</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.29580269433268</v>
+        <v>103.4676841987897</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5565369152724</v>
+        <v>278.5565369152723</v>
       </c>
       <c r="L22" t="n">
         <v>402.7100803171672</v>
       </c>
       <c r="M22" t="n">
-        <v>398.020333526346</v>
+        <v>433.1838954755057</v>
       </c>
       <c r="N22" t="n">
         <v>429.2093731006625</v>
       </c>
       <c r="O22" t="n">
-        <v>382.9505704329919</v>
+        <v>347.7870084838323</v>
       </c>
       <c r="P22" t="n">
-        <v>308.9971648917299</v>
+        <v>277.8252833872736</v>
       </c>
       <c r="Q22" t="n">
         <v>140.4738959761094</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K23" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L23" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M23" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N23" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O23" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P23" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q23" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R23" t="n">
         <v>104.6268278347648</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K24" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L24" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M24" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N24" t="n">
-        <v>578.0248067375037</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O24" t="n">
         <v>483.0781665485772</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.30412224963001</v>
+        <v>103.4676841987896</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5565369152724</v>
+        <v>278.5565369152723</v>
       </c>
       <c r="L25" t="n">
-        <v>402.7100803171672</v>
+        <v>371.5381988127133</v>
       </c>
       <c r="M25" t="n">
-        <v>433.1838954755057</v>
+        <v>433.1838954755056</v>
       </c>
       <c r="N25" t="n">
-        <v>429.2093731006625</v>
+        <v>429.2093731006624</v>
       </c>
       <c r="O25" t="n">
-        <v>351.778688928535</v>
+        <v>382.9505704329918</v>
       </c>
       <c r="P25" t="n">
-        <v>308.9971648917299</v>
+        <v>273.8336029425702</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.4738959761094</v>
+        <v>140.4738959761093</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K26" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L26" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M26" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N26" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O26" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P26" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.1781913022731</v>
+        <v>355.4045542391513</v>
       </c>
       <c r="R26" t="n">
-        <v>131.8531907716423</v>
+        <v>104.6268278347648</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K27" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M27" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N27" t="n">
-        <v>554.7674390078836</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O27" t="n">
-        <v>506.3355342781974</v>
+        <v>483.0781665485767</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.7406210075844</v>
+        <v>100.7406210075843</v>
       </c>
       <c r="K28" t="n">
         <v>275.829473724067</v>
@@ -36764,7 +36764,7 @@
         <v>430.4568322843003</v>
       </c>
       <c r="N28" t="n">
-        <v>426.4823099094571</v>
+        <v>426.4823099094572</v>
       </c>
       <c r="O28" t="n">
         <v>380.2235072417865</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K29" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L29" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M29" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N29" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O29" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P29" t="n">
-        <v>501.8088277500883</v>
+        <v>510.9703790688243</v>
       </c>
       <c r="Q29" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R29" t="n">
-        <v>113.7883791535006</v>
+        <v>104.6268278347648</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K30" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M30" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N30" t="n">
-        <v>554.7674390078836</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O30" t="n">
-        <v>506.3355342781974</v>
+        <v>483.0781665485767</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37007,10 +37007,10 @@
         <v>380.2235072417865</v>
       </c>
       <c r="P31" t="n">
-        <v>306.2701017005244</v>
+        <v>306.2701017005245</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.7468327849039</v>
+        <v>137.746832784904</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K32" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L32" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M32" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N32" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O32" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P32" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q32" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R32" t="n">
         <v>104.6268278347648</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K33" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M33" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N33" t="n">
-        <v>554.7674390078836</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O33" t="n">
-        <v>506.3355342781974</v>
+        <v>483.0781665485772</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.4676841987896</v>
+        <v>103.4676841987895</v>
       </c>
       <c r="K34" t="n">
-        <v>278.5565369152723</v>
+        <v>278.5565369152722</v>
       </c>
       <c r="L34" t="n">
-        <v>402.7100803171672</v>
+        <v>402.7100803171671</v>
       </c>
       <c r="M34" t="n">
-        <v>433.1838954755057</v>
+        <v>433.1838954755056</v>
       </c>
       <c r="N34" t="n">
         <v>429.2093731006624</v>
@@ -37244,10 +37244,10 @@
         <v>382.9505704329918</v>
       </c>
       <c r="P34" t="n">
-        <v>273.8336029425702</v>
+        <v>277.8252833872773</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.3020144716536</v>
+        <v>105.3103340269497</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K35" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L35" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M35" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N35" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O35" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P35" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q35" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022732</v>
       </c>
       <c r="R35" t="n">
         <v>104.6268278347648</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K36" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M36" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N36" t="n">
-        <v>554.7674390078836</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O36" t="n">
-        <v>506.3355342781974</v>
+        <v>483.0781665485772</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.4676841987898</v>
+        <v>103.4676841987896</v>
       </c>
       <c r="K37" t="n">
-        <v>247.3846554108135</v>
+        <v>247.3846554108196</v>
       </c>
       <c r="L37" t="n">
-        <v>402.7100803171673</v>
+        <v>367.5465183680076</v>
       </c>
       <c r="M37" t="n">
-        <v>433.1838954755058</v>
+        <v>433.1838954755056</v>
       </c>
       <c r="N37" t="n">
-        <v>394.0458111515028</v>
+        <v>429.2093731006624</v>
       </c>
       <c r="O37" t="n">
-        <v>382.950570432992</v>
+        <v>382.9505704329918</v>
       </c>
       <c r="P37" t="n">
-        <v>308.9971648917299</v>
+        <v>308.9971648917298</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.4738959761094</v>
+        <v>140.4738959761092</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K38" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L38" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M38" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N38" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O38" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P38" t="n">
-        <v>501.8088277500857</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q38" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R38" t="n">
         <v>104.6268278347648</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K39" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6510455093472</v>
+        <v>453.6510455093473</v>
       </c>
       <c r="M39" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N39" t="n">
-        <v>578.0248067375037</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O39" t="n">
         <v>483.0781665485772</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.4676841987898</v>
+        <v>72.29580269433566</v>
       </c>
       <c r="K40" t="n">
         <v>243.3929749661127</v>
       </c>
       <c r="L40" t="n">
-        <v>371.5381988127067</v>
+        <v>402.7100803171672</v>
       </c>
       <c r="M40" t="n">
-        <v>433.1838954755058</v>
+        <v>433.1838954755056</v>
       </c>
       <c r="N40" t="n">
-        <v>429.2093731006626</v>
+        <v>429.2093731006624</v>
       </c>
       <c r="O40" t="n">
-        <v>382.950570432992</v>
+        <v>382.9505704329918</v>
       </c>
       <c r="P40" t="n">
-        <v>308.99716489173</v>
+        <v>308.9971648917298</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.4738959761095</v>
+        <v>140.4738959761093</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847271</v>
       </c>
       <c r="K41" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L41" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M41" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N41" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O41" t="n">
-        <v>628.7907101985242</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P41" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q41" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R41" t="n">
-        <v>104.6268278347648</v>
+        <v>104.6268278347638</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K42" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L42" t="n">
-        <v>453.6510455093472</v>
+        <v>430.3936777797268</v>
       </c>
       <c r="M42" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N42" t="n">
-        <v>578.0248067375037</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O42" t="n">
-        <v>483.0781665485772</v>
+        <v>506.3355342781975</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>100.7406210075843</v>
       </c>
       <c r="K43" t="n">
-        <v>275.829473724067</v>
+        <v>275.8294737240669</v>
       </c>
       <c r="L43" t="n">
         <v>399.9830171259619</v>
@@ -37955,7 +37955,7 @@
         <v>380.2235072417865</v>
       </c>
       <c r="P43" t="n">
-        <v>306.2701017005244</v>
+        <v>306.2701017005245</v>
       </c>
       <c r="Q43" t="n">
         <v>137.746832784904</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>251.606860784727</v>
+        <v>251.6068607847261</v>
       </c>
       <c r="K44" t="n">
-        <v>428.3444904973889</v>
+        <v>428.344490497389</v>
       </c>
       <c r="L44" t="n">
-        <v>568.6737242000252</v>
+        <v>568.6737242000254</v>
       </c>
       <c r="M44" t="n">
-        <v>664.7484206202088</v>
+        <v>664.7484206202089</v>
       </c>
       <c r="N44" t="n">
-        <v>680.1651575427925</v>
+        <v>680.1651575427927</v>
       </c>
       <c r="O44" t="n">
-        <v>628.7907101985239</v>
+        <v>628.7907101985243</v>
       </c>
       <c r="P44" t="n">
-        <v>501.8088277500883</v>
+        <v>501.8088277500884</v>
       </c>
       <c r="Q44" t="n">
-        <v>328.1781913022731</v>
+        <v>328.1781913022733</v>
       </c>
       <c r="R44" t="n">
         <v>104.6268278347648</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>130.8473963846436</v>
+        <v>130.8473963846437</v>
       </c>
       <c r="K45" t="n">
-        <v>302.583308886933</v>
+        <v>302.5833088869331</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6510455093472</v>
+        <v>430.3936777797268</v>
       </c>
       <c r="M45" t="n">
         <v>548.9417648651408</v>
       </c>
       <c r="N45" t="n">
-        <v>578.0248067375037</v>
+        <v>578.0248067375038</v>
       </c>
       <c r="O45" t="n">
-        <v>483.0781665485772</v>
+        <v>506.3355342781975</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38186,13 +38186,13 @@
         <v>430.4568322843003</v>
       </c>
       <c r="N46" t="n">
-        <v>426.4823099094571</v>
+        <v>426.4823099094572</v>
       </c>
       <c r="O46" t="n">
         <v>380.2235072417865</v>
       </c>
       <c r="P46" t="n">
-        <v>306.2701017005244</v>
+        <v>306.2701017005245</v>
       </c>
       <c r="Q46" t="n">
         <v>137.746832784904</v>
